--- a/$TOST.xlsx
+++ b/$TOST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BCDACD-7EA8-40C3-B5FC-F127E6DD63D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42356E26-1E2C-4113-9531-14C5E0335382}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{37C1F632-1354-44A5-BE18-53817A0497AE}"/>
   </bookViews>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="144">
   <si>
     <t>$TOST</t>
   </si>
@@ -699,7 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -788,46 +779,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -842,16 +794,58 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -874,16 +868,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -898,7 +892,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8153400" y="9525"/>
+          <a:off x="8763000" y="0"/>
           <a:ext cx="0" cy="16802100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1275,7 +1269,7 @@
   <dimension ref="A2:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1297,23 +1291,23 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="G5" s="48" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="G5" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="50"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="59"/>
       <c r="S5" s="2" t="s">
         <v>122</v>
       </c>
@@ -1323,18 +1317,18 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>31.25</v>
+        <v>36.5</v>
       </c>
       <c r="D6" s="11"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="13"/>
       <c r="S6" s="1" t="s">
         <v>123</v>
@@ -1345,20 +1339,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>562</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>38</v>
+        <f>+'Financial Model'!M26</f>
+        <v>563</v>
+      </c>
+      <c r="D7" s="11" t="str">
+        <f>+$C$30</f>
+        <v>Q324</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
       <c r="P7" s="13"/>
       <c r="S7" s="1" t="s">
         <v>124</v>
@@ -1370,22 +1366,22 @@
       </c>
       <c r="C8" s="18">
         <f>C6*C7</f>
-        <v>17562.5</v>
+        <v>20549.5</v>
       </c>
       <c r="D8" s="11"/>
       <c r="G8" s="35">
         <v>45323</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
       <c r="P8" s="13"/>
       <c r="S8" s="1" t="s">
         <v>125</v>
@@ -1396,21 +1392,22 @@
         <v>6</v>
       </c>
       <c r="C9" s="18">
-        <f>+'Financial Model'!L78</f>
-        <v>1219</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>38</v>
+        <f>+'Financial Model'!M78</f>
+        <v>1272</v>
+      </c>
+      <c r="D9" s="11" t="str">
+        <f>+$C$30</f>
+        <v>Q324</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
       <c r="P9" s="13"/>
       <c r="S9" s="1" t="s">
         <v>127</v>
@@ -1421,25 +1418,26 @@
         <v>7</v>
       </c>
       <c r="C10" s="18">
-        <f>+'Financial Model'!L79</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>38</v>
+        <f>+'Financial Model'!M79</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f>+$C$30</f>
+        <v>Q324</v>
       </c>
       <c r="G10" s="35">
         <v>45017</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
       <c r="P10" s="13"/>
       <c r="S10" s="1" t="s">
         <v>126</v>
@@ -1451,20 +1449,21 @@
       </c>
       <c r="C11" s="18">
         <f>C9-C10</f>
-        <v>1219</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>38</v>
+        <v>1272</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>+$C$30</f>
+        <v>Q324</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
       <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:19">
@@ -1473,67 +1472,67 @@
       </c>
       <c r="C12" s="19">
         <f>C8-C11</f>
-        <v>16343.5</v>
+        <v>19277.5</v>
       </c>
       <c r="D12" s="12"/>
       <c r="G12" s="35">
         <v>44440</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:19">
       <c r="G13" s="7"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:19">
       <c r="G14" s="7"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
       <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
       <c r="G15" s="35">
         <v>43922</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
       <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:19">
@@ -1543,48 +1542,48 @@
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="52"/>
+      <c r="D16" s="67"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
       <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="52"/>
+      <c r="D17" s="67"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
       <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="52"/>
+      <c r="D18" s="67"/>
       <c r="G18" s="16">
         <v>41030</v>
       </c>
@@ -1607,156 +1606,161 @@
       <c r="B19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="47"/>
+      <c r="D19" s="71"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="67"/>
     </row>
     <row r="24" spans="1:16">
       <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="66">
         <v>2011</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="67"/>
     </row>
     <row r="25" spans="1:16">
       <c r="B25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="66">
         <v>2021</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="67"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" s="7"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
     </row>
     <row r="27" spans="1:16">
       <c r="B27" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="64">
         <f>+'Financial Model'!U39</f>
         <v>106000</v>
       </c>
-      <c r="D27" s="52"/>
+      <c r="D27" s="67"/>
     </row>
     <row r="28" spans="1:16">
       <c r="B28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="64">
         <f>+'Financial Model'!U37</f>
         <v>5500</v>
       </c>
-      <c r="D28" s="54"/>
+      <c r="D28" s="65"/>
     </row>
     <row r="29" spans="1:16">
       <c r="B29" s="7"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
     </row>
     <row r="30" spans="1:16">
       <c r="B30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="26" t="str">
-        <f>+'Financial Model'!L1</f>
-        <v>Q224</v>
+      <c r="C30" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="D30" s="27">
-        <f>+'Financial Model'!L3</f>
-        <v>45511</v>
+        <f>+'Financial Model'!M3</f>
+        <v>45603</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="B31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="69"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="55">
-        <f>+C6/'Financial Model'!L76</f>
-        <v>13.542478565861263</v>
-      </c>
-      <c r="D35" s="56"/>
+      <c r="C35" s="60">
+        <f>+C6/'Financial Model'!M76</f>
+        <v>14.471478873239437</v>
+      </c>
+      <c r="D35" s="61"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="55">
-        <f>C8/SUM('Financial Model'!I7:L7)</f>
-        <v>4.0051311288483467</v>
-      </c>
-      <c r="D36" s="56"/>
+      <c r="C36" s="60">
+        <f>C8/SUM('Financial Model'!J7:M7)</f>
+        <v>4.4116573636753973</v>
+      </c>
+      <c r="D36" s="61"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="55">
-        <f>C12/SUM('Financial Model'!I7:L7)</f>
-        <v>3.7271379703534779</v>
-      </c>
-      <c r="D37" s="56"/>
+      <c r="C37" s="60">
+        <f>C12/SUM('Financial Model'!J7:M7)</f>
+        <v>4.1385787891799053</v>
+      </c>
+      <c r="D37" s="61"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="55">
-        <f>C6/SUM('Financial Model'!I25:L25)</f>
-        <v>-123.93602362911389</v>
-      </c>
-      <c r="D38" s="56"/>
+      <c r="C38" s="60">
+        <f>C6/SUM('Financial Model'!J25:M25)</f>
+        <v>-385.18800216010868</v>
+      </c>
+      <c r="D38" s="61"/>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="66">
-        <f>C12/SUM('Financial Model'!I24:L24)</f>
-        <v>-120.17279411764706</v>
-      </c>
-      <c r="D39" s="67"/>
+      <c r="C39" s="62">
+        <f>C12/SUM('Financial Model'!J24:M24)</f>
+        <v>-393.41836734693879</v>
+      </c>
+      <c r="D39" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="G5:P5"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1773,12 +1777,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{8920C50F-38C5-44AC-8838-75639CA0C9B3}"/>
@@ -1792,10 +1790,10 @@
   <dimension ref="B1:AD100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1822,7 +1820,7 @@
       <c r="F1" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="49" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="17" t="s">
@@ -1840,7 +1838,7 @@
       <c r="L1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="17" t="s">
         <v>39</v>
       </c>
       <c r="N1" s="36" t="s">
@@ -1921,7 +1919,9 @@
       <c r="L2" s="32">
         <v>45473</v>
       </c>
-      <c r="M2" s="37"/>
+      <c r="M2" s="72">
+        <v>45565</v>
+      </c>
       <c r="N2" s="37"/>
       <c r="Q2" s="32">
         <v>43830</v>
@@ -1953,7 +1953,9 @@
       <c r="L3" s="33">
         <v>45511</v>
       </c>
-      <c r="M3" s="38"/>
+      <c r="M3" s="38">
+        <v>45603</v>
+      </c>
       <c r="N3" s="38"/>
       <c r="U3" s="33">
         <v>45349</v>
@@ -1987,7 +1989,7 @@
         <v>131</v>
       </c>
       <c r="J4" s="29">
-        <f>+U4-SUM(G4:I4)</f>
+        <f t="shared" ref="J4:J11" si="0">+U4-SUM(G4:I4)</f>
         <v>141</v>
       </c>
       <c r="K4" s="29">
@@ -1995,6 +1997,9 @@
       </c>
       <c r="L4" s="29">
         <v>166</v>
+      </c>
+      <c r="M4" s="29">
+        <v>189</v>
       </c>
       <c r="S4" s="29">
         <v>169</v>
@@ -2033,7 +2038,7 @@
         <v>856</v>
       </c>
       <c r="J5" s="29">
-        <f>+U5-SUM(G5:I5)</f>
+        <f t="shared" si="0"/>
         <v>852</v>
       </c>
       <c r="K5" s="29">
@@ -2041,6 +2046,9 @@
       </c>
       <c r="L5" s="29">
         <v>1023</v>
+      </c>
+      <c r="M5" s="29">
+        <v>1067</v>
       </c>
       <c r="S5" s="29">
         <v>1406</v>
@@ -2083,7 +2091,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="29">
-        <f>+U6-SUM(G6:I6)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="K6" s="29">
@@ -2091,6 +2099,9 @@
       </c>
       <c r="L6" s="29">
         <v>53</v>
+      </c>
+      <c r="M6" s="29">
+        <v>49</v>
       </c>
       <c r="S6" s="29">
         <v>130</v>
@@ -2107,35 +2118,35 @@
         <v>48</v>
       </c>
       <c r="C7" s="25">
-        <f>+C4+C5+C6</f>
+        <f t="shared" ref="C7:I7" si="1">+C4+C5+C6</f>
         <v>535</v>
       </c>
       <c r="D7" s="25">
-        <f>+D4+D5+D6</f>
+        <f t="shared" si="1"/>
         <v>675</v>
       </c>
       <c r="E7" s="25">
-        <f>+E4+E5+E6</f>
+        <f t="shared" si="1"/>
         <v>752</v>
       </c>
       <c r="F7" s="25">
-        <f>+F4+F5+F6</f>
+        <f t="shared" si="1"/>
         <v>769</v>
       </c>
       <c r="G7" s="25">
-        <f>+G4+G5+G6</f>
+        <f t="shared" si="1"/>
         <v>819</v>
       </c>
       <c r="H7" s="25">
-        <f>+H4+H5+H6</f>
+        <f t="shared" si="1"/>
         <v>978</v>
       </c>
       <c r="I7" s="25">
-        <f>+I4+I5+I6</f>
+        <f t="shared" si="1"/>
         <v>1032</v>
       </c>
       <c r="J7" s="25">
-        <f>+U7-SUM(G7:I7)</f>
+        <f t="shared" si="0"/>
         <v>1036</v>
       </c>
       <c r="K7" s="25">
@@ -2146,20 +2157,20 @@
         <f>+L4+L5+L6</f>
         <v>1242</v>
       </c>
-      <c r="M7" s="39">
-        <f>+L7*(1+M33)</f>
-        <v>1552.5</v>
+      <c r="M7" s="25">
+        <f>+M4+M5+M6</f>
+        <v>1305</v>
       </c>
       <c r="N7" s="39">
         <f>+M7*(1+N33)</f>
-        <v>1863</v>
+        <v>1566</v>
       </c>
       <c r="S7" s="25">
-        <f t="shared" ref="S7" si="0">+S4+S5+S6</f>
+        <f t="shared" ref="S7" si="2">+S4+S5+S6</f>
         <v>1705</v>
       </c>
       <c r="T7" s="25">
-        <f t="shared" ref="T7" si="1">+T4+T5+T6</f>
+        <f t="shared" ref="T7" si="3">+T4+T5+T6</f>
         <v>2731</v>
       </c>
       <c r="U7" s="25">
@@ -2168,7 +2179,7 @@
       </c>
       <c r="V7" s="39">
         <f>+SUM(K7:N7)</f>
-        <v>5732.5</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="8" spans="2:30" s="29" customFormat="1">
@@ -2198,7 +2209,7 @@
         <v>43</v>
       </c>
       <c r="J8" s="29">
-        <f>+U8-SUM(G8:I8)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="K8" s="29">
@@ -2206,6 +2217,9 @@
       </c>
       <c r="L8" s="29">
         <v>53</v>
+      </c>
+      <c r="M8" s="29">
+        <v>56</v>
       </c>
       <c r="S8" s="29">
         <v>63</v>
@@ -2244,7 +2258,7 @@
         <v>674</v>
       </c>
       <c r="J9" s="29">
-        <f>+U9-SUM(G9:I9)</f>
+        <f t="shared" si="0"/>
         <v>675</v>
       </c>
       <c r="K9" s="29">
@@ -2252,6 +2266,9 @@
       </c>
       <c r="L9" s="29">
         <v>806</v>
+      </c>
+      <c r="M9" s="29">
+        <v>835</v>
       </c>
       <c r="S9" s="29">
         <v>1120</v>
@@ -2294,7 +2311,7 @@
         <v>88</v>
       </c>
       <c r="J10" s="29">
-        <f>+U10-SUM(G10:I10)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="K10" s="29">
@@ -2302,6 +2319,9 @@
       </c>
       <c r="L10" s="29">
         <v>96</v>
+      </c>
+      <c r="M10" s="29">
+        <v>91</v>
       </c>
       <c r="S10" s="29">
         <v>204</v>
@@ -2340,13 +2360,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="29">
-        <f>+U11-SUM(G11:I11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K11" s="29">
         <v>1</v>
       </c>
       <c r="L11" s="29">
+        <v>1</v>
+      </c>
+      <c r="M11" s="29">
         <v>1</v>
       </c>
       <c r="S11" s="29">
@@ -2380,43 +2403,43 @@
         <v>611</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" ref="G12:L12" si="2">+SUM(G8:G11)</f>
+        <f t="shared" ref="G12:M12" si="4">+SUM(G8:G11)</f>
         <v>645</v>
       </c>
       <c r="H12" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>770</v>
       </c>
       <c r="I12" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>806</v>
       </c>
       <c r="J12" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>810</v>
       </c>
       <c r="K12" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>826</v>
       </c>
       <c r="L12" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>956</v>
       </c>
-      <c r="M12" s="29">
-        <f>+M7-M13</f>
-        <v>1195.425</v>
+      <c r="M12" s="18">
+        <f t="shared" si="4"/>
+        <v>983</v>
       </c>
       <c r="N12" s="29">
         <f>+N7-N13</f>
-        <v>1434.51</v>
+        <v>1190.1600000000001</v>
       </c>
       <c r="S12" s="18">
-        <f t="shared" ref="S12" si="3">+SUM(S8:S11)</f>
+        <f t="shared" ref="S12" si="5">+SUM(S8:S11)</f>
         <v>1391</v>
       </c>
       <c r="T12" s="18">
-        <f t="shared" ref="T12" si="4">+SUM(T8:T11)</f>
+        <f t="shared" ref="T12" si="6">+SUM(T8:T11)</f>
         <v>2220</v>
       </c>
       <c r="U12" s="18">
@@ -2424,8 +2447,8 @@
         <v>3031</v>
       </c>
       <c r="V12" s="29">
-        <f>+SUM(K12:N12)</f>
-        <v>4411.9350000000004</v>
+        <f t="shared" ref="V12:V21" si="7">+SUM(K12:N12)</f>
+        <v>3955.16</v>
       </c>
     </row>
     <row r="13" spans="2:30" s="25" customFormat="1">
@@ -2449,43 +2472,43 @@
         <v>158</v>
       </c>
       <c r="G13" s="25">
-        <f t="shared" ref="G13:L13" si="5">+G7-G12</f>
+        <f t="shared" ref="G13:M13" si="8">+G7-G12</f>
         <v>174</v>
       </c>
       <c r="H13" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>208</v>
       </c>
       <c r="I13" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>226</v>
       </c>
       <c r="J13" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>226</v>
       </c>
       <c r="K13" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>249</v>
       </c>
       <c r="L13" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>286</v>
       </c>
-      <c r="M13" s="39">
-        <f>+M7*M28</f>
-        <v>357.07499999999999</v>
+      <c r="M13" s="25">
+        <f t="shared" si="8"/>
+        <v>322</v>
       </c>
       <c r="N13" s="39">
         <f>+N7*N28</f>
-        <v>428.49</v>
+        <v>375.84</v>
       </c>
       <c r="S13" s="25">
-        <f t="shared" ref="S13" si="6">+S7-S12</f>
+        <f t="shared" ref="S13" si="9">+S7-S12</f>
         <v>314</v>
       </c>
       <c r="T13" s="25">
-        <f t="shared" ref="T13" si="7">+T7-T12</f>
+        <f t="shared" ref="T13" si="10">+T7-T12</f>
         <v>511</v>
       </c>
       <c r="U13" s="25">
@@ -2493,8 +2516,8 @@
         <v>834</v>
       </c>
       <c r="V13" s="39">
-        <f>+SUM(K13:N13)</f>
-        <v>1320.5650000000001</v>
+        <f t="shared" si="7"/>
+        <v>1232.8399999999999</v>
       </c>
     </row>
     <row r="14" spans="2:30" s="18" customFormat="1">
@@ -2534,7 +2557,7 @@
         <v>115</v>
       </c>
       <c r="M14" s="29">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N14" s="29">
         <v>125</v>
@@ -2549,8 +2572,8 @@
         <v>401</v>
       </c>
       <c r="V14" s="29">
-        <f>+SUM(K14:N14)</f>
-        <v>467</v>
+        <f t="shared" si="7"/>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="2:30" s="18" customFormat="1">
@@ -2590,12 +2613,11 @@
         <v>87</v>
       </c>
       <c r="M15" s="29">
-        <f>+M7*0.07</f>
-        <v>108.67500000000001</v>
+        <v>89</v>
       </c>
       <c r="N15" s="29">
         <f>+N7*0.07</f>
-        <v>130.41000000000003</v>
+        <v>109.62</v>
       </c>
       <c r="S15" s="18">
         <v>163</v>
@@ -2607,8 +2629,8 @@
         <v>358</v>
       </c>
       <c r="V15" s="29">
-        <f>+SUM(K15:N15)</f>
-        <v>409.08500000000004</v>
+        <f t="shared" si="7"/>
+        <v>368.62</v>
       </c>
     </row>
     <row r="16" spans="2:30" s="18" customFormat="1">
@@ -2648,7 +2670,7 @@
         <v>75</v>
       </c>
       <c r="M16" s="29">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N16" s="29">
         <v>78</v>
@@ -2663,8 +2685,8 @@
         <v>362</v>
       </c>
       <c r="V16" s="29">
-        <f>+SUM(K16:N16)</f>
-        <v>303</v>
+        <f t="shared" si="7"/>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="2:22" s="44" customFormat="1">
@@ -2700,7 +2722,7 @@
         <v>4</v>
       </c>
       <c r="M17" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="45">
         <v>0</v>
@@ -2715,8 +2737,8 @@
         <v>0</v>
       </c>
       <c r="V17" s="45">
-        <f>+SUM(K17:N17)</f>
-        <v>47</v>
+        <f t="shared" si="7"/>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:22" s="25" customFormat="1">
@@ -2740,43 +2762,43 @@
         <v>-99</v>
       </c>
       <c r="G18" s="25">
-        <f t="shared" ref="G18:N18" si="8">+G13-SUM(G14:G17)</f>
+        <f t="shared" ref="G18:N18" si="11">+G13-SUM(G14:G17)</f>
         <v>-92</v>
       </c>
       <c r="H18" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-80</v>
       </c>
       <c r="I18" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-59</v>
       </c>
       <c r="J18" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-56</v>
       </c>
       <c r="K18" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-56</v>
       </c>
       <c r="L18" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="M18" s="39">
-        <f t="shared" si="8"/>
-        <v>50.399999999999977</v>
+        <f t="shared" si="11"/>
+        <v>34</v>
       </c>
       <c r="N18" s="39">
-        <f t="shared" si="8"/>
-        <v>95.079999999999984</v>
+        <f t="shared" si="11"/>
+        <v>63.21999999999997</v>
       </c>
       <c r="S18" s="25">
-        <f t="shared" ref="S18" si="9">+S13-SUM(S14:S17)</f>
+        <f t="shared" ref="S18" si="12">+S13-SUM(S14:S17)</f>
         <v>-228</v>
       </c>
       <c r="T18" s="25">
-        <f t="shared" ref="T18" si="10">+T13-SUM(T14:T17)</f>
+        <f t="shared" ref="T18" si="13">+T13-SUM(T14:T17)</f>
         <v>-384</v>
       </c>
       <c r="U18" s="25">
@@ -2784,8 +2806,8 @@
         <v>-287</v>
       </c>
       <c r="V18" s="39">
-        <f>+SUM(K18:N18)</f>
-        <v>94.479999999999961</v>
+        <f t="shared" si="7"/>
+        <v>46.21999999999997</v>
       </c>
     </row>
     <row r="19" spans="2:22" s="18" customFormat="1">
@@ -2825,12 +2847,11 @@
         <v>10</v>
       </c>
       <c r="M19" s="29">
-        <f>AVERAGE(G19:L19)</f>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="N19" s="29">
         <f>AVERAGE(H19:M19)</f>
-        <v>9.75</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="S19" s="18">
         <v>-12</v>
@@ -2842,8 +2863,8 @@
         <v>37</v>
       </c>
       <c r="V19" s="29">
-        <f>+SUM(K19:N19)</f>
-        <v>39.25</v>
+        <f t="shared" si="7"/>
+        <v>38.666666666666664</v>
       </c>
     </row>
     <row r="20" spans="2:22" s="18" customFormat="1">
@@ -2883,12 +2904,11 @@
         <v>-1</v>
       </c>
       <c r="M20" s="29">
-        <f t="shared" ref="M20:N20" si="11">AVERAGE(G20:L20)</f>
-        <v>-5.666666666666667</v>
+        <v>-1</v>
       </c>
       <c r="N20" s="29">
-        <f t="shared" si="11"/>
-        <v>-7.1111111111111107</v>
+        <f t="shared" ref="M20:N20" si="14">AVERAGE(H20:M20)</f>
+        <v>-6.333333333333333</v>
       </c>
       <c r="S20" s="18">
         <v>-97</v>
@@ -2900,8 +2920,8 @@
         <v>3</v>
       </c>
       <c r="V20" s="29">
-        <f>+SUM(K20:N20)</f>
-        <v>-49.777777777777771</v>
+        <f t="shared" si="7"/>
+        <v>-44.333333333333336</v>
       </c>
     </row>
     <row r="21" spans="2:22" s="18" customFormat="1">
@@ -2941,12 +2961,11 @@
         <v>0</v>
       </c>
       <c r="M21" s="29">
-        <f t="shared" ref="M21:N21" si="12">AVERAGE(G21:L21)</f>
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="N21" s="29">
-        <f t="shared" si="12"/>
-        <v>0.58333333333333337</v>
+        <f t="shared" ref="M21:N21" si="15">AVERAGE(H21:M21)</f>
+        <v>3</v>
       </c>
       <c r="S21" s="18">
         <f>-103-50</f>
@@ -2959,8 +2978,8 @@
         <v>3</v>
       </c>
       <c r="V21" s="29">
-        <f>+SUM(K21:N21)</f>
-        <v>1.0833333333333335</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:22" s="18" customFormat="1">
@@ -2984,43 +3003,43 @@
         <v>-98</v>
       </c>
       <c r="G22" s="18">
-        <f t="shared" ref="G22:L22" si="13">+G18+SUM(G19:G21)</f>
+        <f t="shared" ref="G22:L22" si="16">+G18+SUM(G19:G21)</f>
         <v>-81</v>
       </c>
       <c r="H22" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-97</v>
       </c>
       <c r="I22" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-31</v>
       </c>
       <c r="J22" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-35</v>
       </c>
       <c r="K22" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-82</v>
       </c>
       <c r="L22" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="M22" s="29">
-        <f t="shared" ref="M22:N22" si="14">+M18+SUM(M19:M21)</f>
-        <v>54.733333333333313</v>
+        <f t="shared" ref="M22:N22" si="17">+M18+SUM(M19:M21)</f>
+        <v>57</v>
       </c>
       <c r="N22" s="29">
-        <f t="shared" si="14"/>
-        <v>98.302222222222213</v>
+        <f t="shared" si="17"/>
+        <v>69.553333333333299</v>
       </c>
       <c r="S22" s="18">
-        <f t="shared" ref="S22" si="15">+S18+SUM(S19:S21)</f>
+        <f t="shared" ref="S22" si="18">+S18+SUM(S19:S21)</f>
         <v>-490</v>
       </c>
       <c r="T22" s="18">
-        <f t="shared" ref="T22" si="16">+T18+SUM(T19:T21)</f>
+        <f t="shared" ref="T22" si="19">+T18+SUM(T19:T21)</f>
         <v>-277</v>
       </c>
       <c r="U22" s="18">
@@ -3029,7 +3048,7 @@
       </c>
       <c r="V22" s="29">
         <f>+V18+SUM(V19:V21)</f>
-        <v>85.035555555555518</v>
+        <v>58.553333333333299</v>
       </c>
     </row>
     <row r="23" spans="2:22" s="18" customFormat="1">
@@ -3069,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="29">
         <v>0</v>
@@ -3085,7 +3104,7 @@
       </c>
       <c r="V23" s="29">
         <f>+SUM(K23:N23)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:22" s="25" customFormat="1">
@@ -3109,43 +3128,43 @@
         <v>-100</v>
       </c>
       <c r="G24" s="25">
-        <f t="shared" ref="G24:L24" si="17">+G22-G23</f>
+        <f t="shared" ref="G24:L24" si="20">+G22-G23</f>
         <v>-81</v>
       </c>
       <c r="H24" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-98</v>
       </c>
       <c r="I24" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-31</v>
       </c>
       <c r="J24" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-36</v>
       </c>
       <c r="K24" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-83</v>
       </c>
       <c r="L24" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="M24" s="39">
-        <f t="shared" ref="M24:N24" si="18">+M22-M23</f>
-        <v>54.733333333333313</v>
+        <f t="shared" ref="M24:N24" si="21">+M22-M23</f>
+        <v>56</v>
       </c>
       <c r="N24" s="39">
-        <f t="shared" si="18"/>
-        <v>98.302222222222213</v>
+        <f t="shared" si="21"/>
+        <v>69.553333333333299</v>
       </c>
       <c r="S24" s="25">
-        <f t="shared" ref="S24" si="19">+S22-S23</f>
+        <f t="shared" ref="S24" si="22">+S22-S23</f>
         <v>-487</v>
       </c>
       <c r="T24" s="25">
-        <f t="shared" ref="T24" si="20">+T22-T23</f>
+        <f t="shared" ref="T24" si="23">+T22-T23</f>
         <v>-275</v>
       </c>
       <c r="U24" s="25">
@@ -3154,7 +3173,7 @@
       </c>
       <c r="V24" s="39">
         <f>+V22-V23</f>
-        <v>84.035555555555518</v>
+        <v>56.553333333333299</v>
       </c>
     </row>
     <row r="25" spans="2:22" s="21" customFormat="1">
@@ -3178,43 +3197,43 @@
         <v>-0.1953125</v>
       </c>
       <c r="G25" s="21">
-        <f t="shared" ref="G25:N25" si="21">+G24/G26</f>
+        <f t="shared" ref="G25:N25" si="24">+G24/G26</f>
         <v>-0.15458015267175573</v>
       </c>
       <c r="H25" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.18525519848771266</v>
       </c>
       <c r="I25" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-5.7920158265076176E-2</v>
       </c>
       <c r="J25" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-6.7669172932330823E-2</v>
       </c>
       <c r="K25" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.15173674588665448</v>
       </c>
       <c r="L25" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2.5179856115107913E-2</v>
       </c>
       <c r="M25" s="40">
-        <f t="shared" si="21"/>
-        <v>9.844124700239805E-2</v>
+        <f t="shared" si="24"/>
+        <v>9.9467140319715805E-2</v>
       </c>
       <c r="N25" s="40">
-        <f t="shared" si="21"/>
-        <v>0.17680255795363709</v>
+        <f t="shared" si="24"/>
+        <v>0.12354055654233267</v>
       </c>
       <c r="S25" s="21">
-        <f t="shared" ref="S25" si="22">+S24/S26</f>
+        <f t="shared" ref="S25" si="25">+S24/S26</f>
         <v>-1.6793103448275861</v>
       </c>
       <c r="T25" s="21">
-        <f t="shared" ref="T25" si="23">+T24/T26</f>
+        <f t="shared" ref="T25" si="26">+T24/T26</f>
         <v>-0.537109375</v>
       </c>
       <c r="U25" s="21">
@@ -3223,7 +3242,7 @@
       </c>
       <c r="V25" s="40">
         <f>+V24/V26</f>
-        <v>0.15114308553157468</v>
+        <v>0.10044997039668437</v>
       </c>
     </row>
     <row r="26" spans="2:22">
@@ -3263,12 +3282,11 @@
         <v>556</v>
       </c>
       <c r="M26" s="20">
-        <f>+L26</f>
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="N26" s="20">
         <f>+M26</f>
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="S26" s="1">
         <v>290</v>
@@ -3281,7 +3299,7 @@
       </c>
       <c r="V26" s="20">
         <f>+N26</f>
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="2:22" s="22" customFormat="1">
@@ -3301,38 +3319,39 @@
         <v>0.20079787234042554</v>
       </c>
       <c r="F28" s="22">
-        <f t="shared" ref="F28" si="24">+F13/F7</f>
+        <f t="shared" ref="F28" si="27">+F13/F7</f>
         <v>0.20546163849154747</v>
       </c>
       <c r="G28" s="22">
-        <f t="shared" ref="G28:L28" si="25">+G13/G7</f>
+        <f t="shared" ref="G28:L28" si="28">+G13/G7</f>
         <v>0.21245421245421245</v>
       </c>
       <c r="H28" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.21267893660531698</v>
       </c>
       <c r="I28" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.2189922480620155</v>
       </c>
       <c r="J28" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.21814671814671815</v>
       </c>
       <c r="K28" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.23162790697674418</v>
       </c>
       <c r="L28" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0.23027375201288244</v>
       </c>
-      <c r="M28" s="41">
-        <v>0.23</v>
+      <c r="M28" s="22">
+        <f t="shared" ref="M28" si="29">+M13/M7</f>
+        <v>0.24674329501915709</v>
       </c>
       <c r="N28" s="41">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="S28" s="22">
         <f>+S13/S7</f>
@@ -3348,7 +3367,7 @@
       </c>
       <c r="V28" s="41">
         <f>+V13/V7</f>
-        <v>0.23036458787614481</v>
+        <v>0.23763299922898995</v>
       </c>
     </row>
     <row r="29" spans="2:22" s="22" customFormat="1">
@@ -3368,34 +3387,37 @@
         <v>-0.11303191489361702</v>
       </c>
       <c r="F29" s="22">
-        <f t="shared" ref="F29" si="26">+F18/F7</f>
+        <f t="shared" ref="F29" si="30">+F18/F7</f>
         <v>-0.12873862158647595</v>
       </c>
       <c r="G29" s="22">
-        <f t="shared" ref="G29:L29" si="27">+G18/G7</f>
+        <f t="shared" ref="G29:L29" si="31">+G18/G7</f>
         <v>-0.11233211233211234</v>
       </c>
       <c r="H29" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-8.1799591002044994E-2</v>
       </c>
       <c r="I29" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-5.7170542635658912E-2</v>
       </c>
       <c r="J29" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-5.4054054054054057E-2</v>
       </c>
       <c r="K29" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-5.2093023255813956E-2</v>
       </c>
       <c r="L29" s="22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>4.0257648953301124E-3</v>
       </c>
-      <c r="M29" s="41"/>
+      <c r="M29" s="22">
+        <f t="shared" ref="M29" si="32">+M18/M7</f>
+        <v>2.6053639846743294E-2</v>
+      </c>
       <c r="N29" s="41"/>
       <c r="S29" s="22">
         <f>+S18/S7</f>
@@ -3411,7 +3433,7 @@
       </c>
       <c r="V29" s="41">
         <f>+V18/V7</f>
-        <v>1.6481465329262968E-2</v>
+        <v>8.9090208172706194E-3</v>
       </c>
     </row>
     <row r="30" spans="2:22" s="22" customFormat="1">
@@ -3431,34 +3453,37 @@
         <v>-0.13031914893617022</v>
       </c>
       <c r="F30" s="22">
-        <f t="shared" ref="F30" si="28">+F24/F7</f>
+        <f t="shared" ref="F30" si="33">+F24/F7</f>
         <v>-0.13003901170351106</v>
       </c>
       <c r="G30" s="22">
-        <f t="shared" ref="G30:L30" si="29">+G24/G7</f>
+        <f t="shared" ref="G30:L30" si="34">+G24/G7</f>
         <v>-9.8901098901098897E-2</v>
       </c>
       <c r="H30" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>-0.10020449897750511</v>
       </c>
       <c r="I30" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>-3.0038759689922482E-2</v>
       </c>
       <c r="J30" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>-3.4749034749034749E-2</v>
       </c>
       <c r="K30" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>-7.7209302325581389E-2</v>
       </c>
       <c r="L30" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>1.1272141706924315E-2</v>
       </c>
-      <c r="M30" s="41"/>
+      <c r="M30" s="22">
+        <f t="shared" ref="M30" si="35">+M24/M7</f>
+        <v>4.2911877394636012E-2</v>
+      </c>
       <c r="N30" s="41"/>
       <c r="S30" s="22">
         <f>+S24/S7</f>
@@ -3474,7 +3499,7 @@
       </c>
       <c r="V30" s="41">
         <f>+V24/V7</f>
-        <v>1.4659495081649458E-2</v>
+        <v>1.0900796710357229E-2</v>
       </c>
     </row>
     <row r="31" spans="2:22" s="22" customFormat="1">
@@ -3494,34 +3519,37 @@
         <v>3.9215686274509803E-2</v>
       </c>
       <c r="F31" s="22">
-        <f t="shared" ref="F31" si="30">+F23/F22</f>
+        <f t="shared" ref="F31" si="36">+F23/F22</f>
         <v>-2.0408163265306121E-2</v>
       </c>
       <c r="G31" s="22">
-        <f t="shared" ref="G31:L31" si="31">+G23/G22</f>
+        <f t="shared" ref="G31:L31" si="37">+G23/G22</f>
         <v>0</v>
       </c>
       <c r="H31" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>-1.0309278350515464E-2</v>
       </c>
       <c r="I31" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J31" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>-2.8571428571428571E-2</v>
       </c>
       <c r="K31" s="22">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>-1.2195121951219513E-2</v>
       </c>
       <c r="L31" s="22">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="41"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
+        <f t="shared" ref="M31" si="38">+M23/M22</f>
+        <v>1.7543859649122806E-2</v>
+      </c>
       <c r="N31" s="41"/>
       <c r="S31" s="22">
         <f>+S23/S22</f>
@@ -3537,7 +3565,7 @@
       </c>
       <c r="V31" s="41">
         <f>+V23/V22</f>
-        <v>1.1759786755866832E-2</v>
+        <v>3.4156893999772307E-2</v>
       </c>
     </row>
     <row r="32" spans="2:22" s="22" customFormat="1">
@@ -3549,44 +3577,45 @@
       <c r="B33" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="63" t="s">
+      <c r="F33" s="50" t="s">
         <v>116</v>
       </c>
       <c r="G33" s="23">
-        <f>+G7/C7-1</f>
+        <f t="shared" ref="G33:M33" si="39">+G7/C7-1</f>
         <v>0.53084112149532703</v>
       </c>
       <c r="H33" s="23">
-        <f>+H7/D7-1</f>
+        <f t="shared" si="39"/>
         <v>0.44888888888888889</v>
       </c>
       <c r="I33" s="23">
-        <f>+I7/E7-1</f>
+        <f t="shared" si="39"/>
         <v>0.37234042553191493</v>
       </c>
       <c r="J33" s="23">
-        <f>+J7/F7-1</f>
+        <f t="shared" si="39"/>
         <v>0.3472041612483745</v>
       </c>
       <c r="K33" s="23">
-        <f>+K7/G7-1</f>
+        <f t="shared" si="39"/>
         <v>0.31257631257631258</v>
       </c>
       <c r="L33" s="23">
-        <f>+L7/H7-1</f>
+        <f t="shared" si="39"/>
         <v>0.26993865030674846</v>
       </c>
-      <c r="M33" s="42">
-        <v>0.25</v>
+      <c r="M33" s="23">
+        <f t="shared" si="39"/>
+        <v>0.26453488372093026</v>
       </c>
       <c r="N33" s="42">
         <v>0.2</v>
@@ -3604,7 +3633,7 @@
       </c>
       <c r="V33" s="42">
         <f>+V7/U7-1</f>
-        <v>0.48318240620957309</v>
+        <v>0.34230271668822776</v>
       </c>
     </row>
     <row r="34" spans="2:23">
@@ -3623,11 +3652,11 @@
         <v>0.11407407407407399</v>
       </c>
       <c r="F34" s="22">
-        <f t="shared" ref="F34:G34" si="32">+F7/E7-1</f>
+        <f t="shared" ref="F34:G34" si="40">+F7/E7-1</f>
         <v>2.2606382978723305E-2</v>
       </c>
       <c r="G34" s="22">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>6.5019505851755532E-2</v>
       </c>
       <c r="H34" s="22">
@@ -3649,6 +3678,10 @@
       <c r="L34" s="22">
         <f>+L7/K7-1</f>
         <v>0.15534883720930237</v>
+      </c>
+      <c r="M34" s="22">
+        <f>+M7/L7-1</f>
+        <v>5.0724637681159424E-2</v>
       </c>
       <c r="S34" s="9" t="s">
         <v>116</v>
@@ -3690,31 +3723,33 @@
       <c r="V37" s="29"/>
       <c r="W37" s="21"/>
     </row>
-    <row r="38" spans="2:23" s="64" customFormat="1">
-      <c r="B38" s="60" t="s">
+    <row r="38" spans="2:23" s="51" customFormat="1">
+      <c r="B38" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="J38" s="64">
+      <c r="J38" s="51">
         <f>J37/F37-1</f>
         <v>0.22222222222222232</v>
       </c>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="T38" s="64">
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="T38" s="51">
         <f>T37/S37-1</f>
         <v>0.41866330390920559</v>
       </c>
-      <c r="U38" s="64">
+      <c r="U38" s="51">
         <f>U37/T37-1</f>
         <v>0.22222222222222232</v>
       </c>
-      <c r="V38" s="65"/>
+      <c r="V38" s="52"/>
     </row>
     <row r="39" spans="2:23" s="18" customFormat="1">
       <c r="B39" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="M39" s="29"/>
+      <c r="M39" s="29">
+        <v>127000</v>
+      </c>
       <c r="N39" s="29"/>
       <c r="S39" s="18">
         <v>57000</v>
@@ -3729,16 +3764,16 @@
       <c r="W39" s="21"/>
     </row>
     <row r="40" spans="2:23" s="18" customFormat="1">
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="47" t="s">
         <v>138</v>
       </c>
       <c r="M40" s="29"/>
       <c r="N40" s="29"/>
-      <c r="T40" s="64">
+      <c r="T40" s="51">
         <f>T39/S39-1</f>
         <v>0.38596491228070184</v>
       </c>
-      <c r="U40" s="64">
+      <c r="U40" s="51">
         <f>U39/T39-1</f>
         <v>0.34177215189873422</v>
       </c>
@@ -3782,7 +3817,9 @@
       <c r="L41" s="18">
         <v>40.5</v>
       </c>
-      <c r="M41" s="29"/>
+      <c r="M41" s="29">
+        <v>41.7</v>
+      </c>
       <c r="N41" s="29"/>
       <c r="Q41" s="18">
         <v>21.8</v>
@@ -3802,50 +3839,54 @@
       <c r="V41" s="29"/>
       <c r="W41" s="21"/>
     </row>
-    <row r="42" spans="2:23" s="60" customFormat="1">
-      <c r="B42" s="60" t="s">
+    <row r="42" spans="2:23" s="47" customFormat="1">
+      <c r="B42" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="G42" s="60">
-        <f>G41/C41-1</f>
+      <c r="G42" s="47">
+        <f t="shared" ref="G42:M42" si="41">G41/C41-1</f>
         <v>0.5</v>
       </c>
-      <c r="H42" s="60">
-        <f>H41/D41-1</f>
+      <c r="H42" s="47">
+        <f t="shared" si="41"/>
         <v>0.37768240343347648</v>
       </c>
-      <c r="I42" s="60">
-        <f>I41/E41-1</f>
+      <c r="I42" s="47">
+        <f t="shared" si="41"/>
         <v>0.33730158730158744</v>
       </c>
-      <c r="J42" s="60">
-        <f>J41/F41-1</f>
+      <c r="J42" s="47">
+        <f t="shared" si="41"/>
         <v>0.32283464566929077</v>
       </c>
-      <c r="K42" s="60">
-        <f>K41/G41-1</f>
+      <c r="K42" s="47">
+        <f t="shared" si="41"/>
         <v>0.29962546816479407</v>
       </c>
-      <c r="L42" s="60">
-        <f>L41/H41-1</f>
+      <c r="L42" s="47">
+        <f t="shared" si="41"/>
         <v>0.26168224299065423</v>
       </c>
-      <c r="Q42" s="65" t="s">
+      <c r="M42" s="47">
+        <f t="shared" si="41"/>
+        <v>0.23738872403560829</v>
+      </c>
+      <c r="Q42" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="R42" s="60">
-        <f t="shared" ref="R42:T42" si="33">R41/Q41-1</f>
+      <c r="R42" s="47">
+        <f t="shared" ref="R42:T42" si="42">R41/Q41-1</f>
         <v>0.16513761467889898</v>
       </c>
-      <c r="S42" s="60">
-        <f t="shared" si="33"/>
+      <c r="S42" s="47">
+        <f t="shared" si="42"/>
         <v>1.2440944881889764</v>
       </c>
-      <c r="T42" s="60">
-        <f t="shared" si="33"/>
+      <c r="T42" s="47">
+        <f t="shared" si="42"/>
         <v>0.60877192982456152</v>
       </c>
-      <c r="U42" s="60">
+      <c r="U42" s="47">
         <f>U41/T41-1</f>
         <v>0.37513631406761161</v>
       </c>
@@ -3883,7 +3924,9 @@
       <c r="L43" s="18">
         <v>1473</v>
       </c>
-      <c r="M43" s="29"/>
+      <c r="M43" s="29">
+        <v>1554</v>
+      </c>
       <c r="N43" s="29"/>
       <c r="Q43" s="18">
         <v>184</v>
@@ -3903,46 +3946,50 @@
       <c r="V43" s="29"/>
       <c r="W43" s="21"/>
     </row>
-    <row r="44" spans="2:23" s="60" customFormat="1">
-      <c r="B44" s="60" t="s">
+    <row r="44" spans="2:23" s="47" customFormat="1">
+      <c r="B44" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="G44" s="60">
+      <c r="G44" s="47">
         <f>G43/C43-1</f>
         <v>0.5494505494505495</v>
       </c>
-      <c r="H44" s="60">
+      <c r="H44" s="47">
         <f>H43/D43-1</f>
         <v>0.44853875476493021</v>
       </c>
-      <c r="I44" s="60">
+      <c r="I44" s="47">
         <f>I43/E43-1</f>
         <v>0.40322580645161299</v>
       </c>
-      <c r="J44" s="60">
+      <c r="J44" s="47">
         <f>J43/F43-1</f>
         <v>0.35183129855715878</v>
       </c>
-      <c r="L44" s="60">
+      <c r="L44" s="47">
         <f>L43/H43-1</f>
         <v>0.29210526315789465</v>
       </c>
-      <c r="Q44" s="65" t="s">
+      <c r="M44" s="47">
+        <f>M43/I43-1</f>
+        <v>0.27586206896551735</v>
+      </c>
+      <c r="Q44" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="R44" s="60">
+      <c r="R44" s="47">
         <f>R43/Q43-1</f>
         <v>0.77173913043478271</v>
       </c>
-      <c r="S44" s="60">
+      <c r="S44" s="47">
         <f>S43/R43-1</f>
         <v>0.74233128834355822</v>
       </c>
-      <c r="T44" s="60">
+      <c r="T44" s="47">
         <f>T43/S43-1</f>
         <v>0.58626760563380276</v>
       </c>
-      <c r="U44" s="60">
+      <c r="U44" s="47">
         <f>U43/T43-1</f>
         <v>0.35183129855715878</v>
       </c>
@@ -3970,32 +4017,32 @@
       </c>
       <c r="V45" s="41"/>
     </row>
-    <row r="46" spans="2:23" s="61" customFormat="1">
-      <c r="B46" s="60" t="s">
+    <row r="46" spans="2:23" s="48" customFormat="1">
+      <c r="B46" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="M46" s="60"/>
-      <c r="N46" s="60"/>
-      <c r="Q46" s="65" t="s">
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="Q46" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="R46" s="61">
-        <f t="shared" ref="R46:T46" si="34">R45/Q45-1</f>
+      <c r="R46" s="48">
+        <f t="shared" ref="R46:T46" si="43">R45/Q45-1</f>
         <v>3.6363636363636154E-2</v>
       </c>
-      <c r="S46" s="61">
-        <f t="shared" si="34"/>
+      <c r="S46" s="48">
+        <f t="shared" si="43"/>
         <v>0.1842105263157896</v>
       </c>
-      <c r="T46" s="61">
-        <f t="shared" si="34"/>
+      <c r="T46" s="48">
+        <f t="shared" si="43"/>
         <v>-0.125925925925926</v>
       </c>
-      <c r="U46" s="61">
+      <c r="U46" s="48">
         <f>U45/T45-1</f>
         <v>-5.9322033898304927E-2</v>
       </c>
-      <c r="V46" s="60"/>
+      <c r="V46" s="47"/>
     </row>
     <row r="48" spans="2:23">
       <c r="B48" s="24" t="s">
@@ -4030,7 +4077,9 @@
       <c r="L49" s="25">
         <v>691</v>
       </c>
-      <c r="M49" s="39"/>
+      <c r="M49" s="25">
+        <v>761</v>
+      </c>
       <c r="N49" s="39"/>
       <c r="T49" s="25">
         <v>547</v>
@@ -4068,7 +4117,9 @@
       <c r="L50" s="25">
         <v>528</v>
       </c>
-      <c r="M50" s="39"/>
+      <c r="M50" s="25">
+        <v>511</v>
+      </c>
       <c r="N50" s="39"/>
       <c r="T50" s="25">
         <v>474</v>
@@ -4106,7 +4157,9 @@
       <c r="L51" s="18">
         <v>101</v>
       </c>
-      <c r="M51" s="29"/>
+      <c r="M51" s="18">
+        <v>105</v>
+      </c>
       <c r="N51" s="29"/>
       <c r="T51" s="18">
         <v>77</v>
@@ -4144,7 +4197,9 @@
       <c r="L52" s="18">
         <v>110</v>
       </c>
-      <c r="M52" s="29"/>
+      <c r="M52" s="18">
+        <v>106</v>
+      </c>
       <c r="N52" s="29"/>
       <c r="T52" s="18">
         <v>110</v>
@@ -4187,7 +4242,9 @@
       <c r="L53" s="18">
         <v>309</v>
       </c>
-      <c r="M53" s="29"/>
+      <c r="M53" s="18">
+        <v>319</v>
+      </c>
       <c r="N53" s="29"/>
       <c r="T53" s="18">
         <v>199</v>
@@ -4202,61 +4259,64 @@
         <v>75</v>
       </c>
       <c r="C54" s="18">
-        <f t="shared" ref="C54:K54" si="35">+SUM(C49:C53)</f>
+        <f t="shared" ref="C54:K54" si="44">+SUM(C49:C53)</f>
         <v>0</v>
       </c>
       <c r="D54" s="18">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E54" s="18">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>1402</v>
       </c>
       <c r="F54" s="18">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>1407</v>
       </c>
       <c r="G54" s="18">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>1408</v>
       </c>
       <c r="H54" s="18">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>1455</v>
       </c>
       <c r="I54" s="18">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>1480</v>
       </c>
       <c r="J54" s="18">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>1570</v>
       </c>
       <c r="K54" s="18">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>1651</v>
       </c>
       <c r="L54" s="18">
         <f>+SUM(L49:L53)</f>
         <v>1739</v>
       </c>
-      <c r="M54" s="29"/>
+      <c r="M54" s="18">
+        <f t="shared" ref="M54" si="45">+SUM(M49:M53)</f>
+        <v>1802</v>
+      </c>
       <c r="N54" s="29"/>
       <c r="R54" s="18">
-        <f t="shared" ref="R54:U54" si="36">+SUM(R49:R53)</f>
+        <f t="shared" ref="R54:U54" si="46">+SUM(R49:R53)</f>
         <v>0</v>
       </c>
       <c r="S54" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="T54" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>1407</v>
       </c>
       <c r="U54" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>1570</v>
       </c>
       <c r="V54" s="29"/>
@@ -4289,7 +4349,9 @@
       <c r="L55" s="18">
         <v>90</v>
       </c>
-      <c r="M55" s="29"/>
+      <c r="M55" s="18">
+        <v>95</v>
+      </c>
       <c r="N55" s="29"/>
       <c r="T55" s="18">
         <v>61</v>
@@ -4327,7 +4389,9 @@
       <c r="L56" s="18">
         <v>33</v>
       </c>
-      <c r="M56" s="29"/>
+      <c r="M56" s="18">
+        <v>31</v>
+      </c>
       <c r="N56" s="29"/>
       <c r="T56" s="18">
         <v>77</v>
@@ -4373,7 +4437,10 @@
         <f>23+113</f>
         <v>136</v>
       </c>
-      <c r="M57" s="29"/>
+      <c r="M57" s="18">
+        <f>22+113</f>
+        <v>135</v>
+      </c>
       <c r="N57" s="29"/>
       <c r="T57" s="18">
         <f>29+107</f>
@@ -4413,7 +4480,9 @@
       <c r="L58" s="18">
         <v>58</v>
       </c>
-      <c r="M58" s="29"/>
+      <c r="M58" s="18">
+        <v>56</v>
+      </c>
       <c r="N58" s="29"/>
       <c r="T58" s="18">
         <v>28</v>
@@ -4456,7 +4525,9 @@
       <c r="L59" s="18">
         <v>99</v>
       </c>
-      <c r="M59" s="29"/>
+      <c r="M59" s="18">
+        <v>108</v>
+      </c>
       <c r="N59" s="29"/>
       <c r="T59" s="18">
         <v>52</v>
@@ -4471,61 +4542,64 @@
         <v>81</v>
       </c>
       <c r="C60" s="18">
-        <f t="shared" ref="C60:K60" si="37">+SUM(C55:C59)</f>
+        <f t="shared" ref="C60:K60" si="47">+SUM(C55:C59)</f>
         <v>0</v>
       </c>
       <c r="D60" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E60" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>339</v>
       </c>
       <c r="F60" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>354</v>
       </c>
       <c r="G60" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>387</v>
       </c>
       <c r="H60" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>340</v>
       </c>
       <c r="I60" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>354</v>
       </c>
       <c r="J60" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>388</v>
       </c>
       <c r="K60" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>401</v>
       </c>
       <c r="L60" s="18">
         <f>+SUM(L55:L59)</f>
         <v>416</v>
       </c>
-      <c r="M60" s="29"/>
+      <c r="M60" s="18">
+        <f>+SUM(M55:M59)</f>
+        <v>425</v>
+      </c>
       <c r="N60" s="29"/>
       <c r="R60" s="18">
-        <f t="shared" ref="R60:U60" si="38">+SUM(R55:R59)</f>
+        <f t="shared" ref="R60:U60" si="48">+SUM(R55:R59)</f>
         <v>0</v>
       </c>
       <c r="S60" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="T60" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>354</v>
       </c>
       <c r="U60" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>388</v>
       </c>
       <c r="V60" s="29"/>
@@ -4535,67 +4609,69 @@
         <v>82</v>
       </c>
       <c r="C61" s="18">
-        <f t="shared" ref="C61:K61" si="39">+C54+C60</f>
+        <f t="shared" ref="C61:K61" si="49">+C54+C60</f>
         <v>0</v>
       </c>
       <c r="D61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="E61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>1741</v>
       </c>
       <c r="F61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>1761</v>
       </c>
       <c r="G61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>1795</v>
       </c>
       <c r="H61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>1795</v>
       </c>
       <c r="I61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>1834</v>
       </c>
       <c r="J61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>1958</v>
       </c>
       <c r="K61" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>2052</v>
       </c>
       <c r="L61" s="18">
         <f>+L54+L60</f>
         <v>2155</v>
       </c>
-      <c r="M61" s="29"/>
+      <c r="M61" s="18">
+        <f t="shared" ref="M61" si="50">+M54+M60</f>
+        <v>2227</v>
+      </c>
       <c r="N61" s="29"/>
       <c r="R61" s="18">
-        <f t="shared" ref="R61:U61" si="40">+R54+R60</f>
+        <f t="shared" ref="R61:U61" si="51">+R54+R60</f>
         <v>0</v>
       </c>
       <c r="S61" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="T61" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>1761</v>
       </c>
       <c r="U61" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="51"/>
         <v>1958</v>
       </c>
       <c r="V61" s="29"/>
     </row>
     <row r="62" spans="2:22" s="18" customFormat="1">
-      <c r="M62" s="29"/>
       <c r="N62" s="29"/>
       <c r="V62" s="29"/>
     </row>
@@ -4627,7 +4703,9 @@
       <c r="L63" s="18">
         <v>33</v>
       </c>
-      <c r="M63" s="29"/>
+      <c r="M63" s="18">
+        <v>30</v>
+      </c>
       <c r="N63" s="29"/>
       <c r="T63" s="18">
         <v>30</v>
@@ -4665,7 +4743,9 @@
       <c r="L64" s="18">
         <v>62</v>
       </c>
-      <c r="M64" s="29"/>
+      <c r="M64" s="18">
+        <v>62</v>
+      </c>
       <c r="N64" s="29"/>
       <c r="T64" s="18">
         <v>39</v>
@@ -4708,7 +4788,9 @@
       <c r="L65" s="18">
         <v>641</v>
       </c>
-      <c r="M65" s="29"/>
+      <c r="M65" s="18">
+        <v>656</v>
+      </c>
       <c r="N65" s="29"/>
       <c r="T65" s="18">
         <v>427</v>
@@ -4723,61 +4805,64 @@
         <v>86</v>
       </c>
       <c r="C66" s="18">
-        <f t="shared" ref="C66:K66" si="41">+SUM(C63:C65)</f>
+        <f t="shared" ref="C66:K66" si="52">+SUM(C63:C65)</f>
         <v>0</v>
       </c>
       <c r="D66" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="E66" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>457</v>
       </c>
       <c r="F66" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>496</v>
       </c>
       <c r="G66" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>538</v>
       </c>
       <c r="H66" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>584</v>
       </c>
       <c r="I66" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>574</v>
       </c>
       <c r="J66" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>663</v>
       </c>
       <c r="K66" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="52"/>
         <v>713</v>
       </c>
       <c r="L66" s="18">
         <f>+SUM(L63:L65)</f>
         <v>736</v>
       </c>
-      <c r="M66" s="29"/>
+      <c r="M66" s="18">
+        <f t="shared" ref="M66" si="53">+SUM(M63:M65)</f>
+        <v>748</v>
+      </c>
       <c r="N66" s="29"/>
       <c r="R66" s="18">
-        <f t="shared" ref="R66:U66" si="42">+SUM(R63:R65)</f>
+        <f t="shared" ref="R66:U66" si="54">+SUM(R63:R65)</f>
         <v>0</v>
       </c>
       <c r="S66" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="T66" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>496</v>
       </c>
       <c r="U66" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>663</v>
       </c>
       <c r="V66" s="29"/>
@@ -4810,7 +4895,9 @@
       <c r="L67" s="18">
         <v>101</v>
       </c>
-      <c r="M67" s="29"/>
+      <c r="M67" s="18">
+        <v>27</v>
+      </c>
       <c r="N67" s="29"/>
       <c r="T67" s="18">
         <v>68</v>
@@ -4848,7 +4935,9 @@
       <c r="L68" s="18">
         <v>29</v>
       </c>
-      <c r="M68" s="29"/>
+      <c r="M68" s="18">
+        <v>27</v>
+      </c>
       <c r="N68" s="29"/>
       <c r="T68" s="18">
         <v>80</v>
@@ -4891,7 +4980,9 @@
       <c r="L69" s="18">
         <v>6</v>
       </c>
-      <c r="M69" s="29"/>
+      <c r="M69" s="18">
+        <v>5</v>
+      </c>
       <c r="N69" s="29"/>
       <c r="T69" s="18">
         <v>19</v>
@@ -4906,64 +4997,70 @@
         <v>90</v>
       </c>
       <c r="C70" s="18">
-        <f t="shared" ref="C70:K70" si="43">SUM(C66:C69)</f>
+        <f t="shared" ref="C70:K70" si="55">SUM(C66:C69)</f>
         <v>0</v>
       </c>
       <c r="D70" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="E70" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>622</v>
       </c>
       <c r="F70" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>663</v>
       </c>
       <c r="G70" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>697</v>
       </c>
       <c r="H70" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>716</v>
       </c>
       <c r="I70" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>685</v>
       </c>
       <c r="J70" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>764</v>
       </c>
       <c r="K70" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>849</v>
       </c>
       <c r="L70" s="18">
         <f>SUM(L66:L69)</f>
         <v>872</v>
       </c>
-      <c r="M70" s="29"/>
+      <c r="M70" s="18">
+        <f t="shared" ref="M70" si="56">SUM(M66:M69)</f>
+        <v>807</v>
+      </c>
       <c r="N70" s="29"/>
       <c r="R70" s="18">
-        <f t="shared" ref="R70:U70" si="44">SUM(R66:R69)</f>
+        <f t="shared" ref="R70:U70" si="57">SUM(R66:R69)</f>
         <v>0</v>
       </c>
       <c r="S70" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="T70" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>663</v>
       </c>
       <c r="U70" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>764</v>
       </c>
       <c r="V70" s="29"/>
+    </row>
+    <row r="71" spans="2:22">
+      <c r="M71" s="1"/>
     </row>
     <row r="72" spans="2:22" s="18" customFormat="1">
       <c r="B72" s="18" t="s">
@@ -4993,7 +5090,9 @@
       <c r="L72" s="18">
         <v>1283</v>
       </c>
-      <c r="M72" s="29"/>
+      <c r="M72" s="18">
+        <v>1420</v>
+      </c>
       <c r="N72" s="29"/>
       <c r="T72" s="18">
         <v>1098</v>
@@ -5008,45 +5107,48 @@
         <v>92</v>
       </c>
       <c r="E73" s="18">
-        <f>+E72+E70</f>
+        <f t="shared" ref="E73:L73" si="58">+E72+E70</f>
         <v>1741</v>
       </c>
       <c r="F73" s="18">
-        <f>+F72+F70</f>
+        <f t="shared" si="58"/>
         <v>1761</v>
       </c>
       <c r="G73" s="18">
-        <f>+G72+G70</f>
+        <f t="shared" si="58"/>
         <v>1795</v>
       </c>
       <c r="H73" s="18">
-        <f>+H72+H70</f>
+        <f t="shared" si="58"/>
         <v>1795</v>
       </c>
       <c r="I73" s="18">
-        <f>+I72+I70</f>
+        <f t="shared" si="58"/>
         <v>1834</v>
       </c>
       <c r="J73" s="18">
-        <f>+J72+J70</f>
+        <f t="shared" si="58"/>
         <v>1958</v>
       </c>
       <c r="K73" s="18">
-        <f>+K72+K70</f>
+        <f t="shared" si="58"/>
         <v>2052</v>
       </c>
       <c r="L73" s="18">
-        <f>+L72+L70</f>
+        <f t="shared" si="58"/>
         <v>2155</v>
       </c>
-      <c r="M73" s="29"/>
+      <c r="M73" s="18">
+        <f t="shared" ref="M73" si="59">+M72+M70</f>
+        <v>2227</v>
+      </c>
       <c r="N73" s="29"/>
       <c r="T73" s="18">
-        <f t="shared" ref="T73:U73" si="45">+T72+T70</f>
+        <f t="shared" ref="T73:U73" si="60">+T72+T70</f>
         <v>1761</v>
       </c>
       <c r="U73" s="18">
-        <f t="shared" si="45"/>
+        <f t="shared" si="60"/>
         <v>1958</v>
       </c>
       <c r="V73" s="29"/>
@@ -5056,11 +5158,11 @@
         <v>93</v>
       </c>
       <c r="E75" s="18">
-        <f t="shared" ref="E75:F75" si="46">+E61-E70</f>
+        <f t="shared" ref="E75" si="61">+E61-E70</f>
         <v>1119</v>
       </c>
       <c r="F75" s="18">
-        <f t="shared" ref="F75:G75" si="47">+F61-F70</f>
+        <f t="shared" ref="F75" si="62">+F61-F70</f>
         <v>1098</v>
       </c>
       <c r="G75" s="18">
@@ -5072,11 +5174,11 @@
         <v>1079</v>
       </c>
       <c r="I75" s="18">
-        <f t="shared" ref="I75:J75" si="48">+I61-I70</f>
+        <f t="shared" ref="I75:J75" si="63">+I61-I70</f>
         <v>1149</v>
       </c>
       <c r="J75" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>1194</v>
       </c>
       <c r="K75" s="18">
@@ -5087,6 +5189,10 @@
         <f>+L61-L70</f>
         <v>1283</v>
       </c>
+      <c r="M75" s="18">
+        <f>+M61-M70</f>
+        <v>1420</v>
+      </c>
       <c r="T75" s="18">
         <f>+T61-T70</f>
         <v>1098</v>
@@ -5101,11 +5207,11 @@
         <v>94</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" ref="E76" si="49">+E75/E26</f>
+        <f t="shared" ref="E76" si="64">+E75/E26</f>
         <v>2.1782299495923523</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" ref="F76" si="50">+F75/F26</f>
+        <f t="shared" ref="F76" si="65">+F75/F26</f>
         <v>2.14453125</v>
       </c>
       <c r="G76" s="1">
@@ -5117,11 +5223,11 @@
         <v>2.0396975425330814</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" ref="I76:J76" si="51">+I75/I26</f>
+        <f t="shared" ref="I76:J76" si="66">+I75/I26</f>
         <v>2.1467826402120171</v>
       </c>
       <c r="J76" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>2.244360902255639</v>
       </c>
       <c r="K76" s="1">
@@ -5132,6 +5238,10 @@
         <f>+L75/L26</f>
         <v>2.3075539568345325</v>
       </c>
+      <c r="M76" s="1">
+        <f>+M75/M26</f>
+        <v>2.5222024866785078</v>
+      </c>
       <c r="T76" s="1">
         <f>+T75/T26</f>
         <v>2.14453125</v>
@@ -5146,45 +5256,49 @@
         <v>6</v>
       </c>
       <c r="C78" s="18">
-        <f t="shared" ref="C78:K78" si="52">+C49+C50</f>
+        <f t="shared" ref="C78:K78" si="67">+C49+C50</f>
         <v>0</v>
       </c>
       <c r="D78" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="E78" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>1053</v>
       </c>
       <c r="F78" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>1021</v>
       </c>
       <c r="G78" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>950</v>
       </c>
       <c r="H78" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>990</v>
       </c>
       <c r="I78" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>1030</v>
       </c>
       <c r="J78" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>1124</v>
       </c>
       <c r="K78" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="67"/>
         <v>1115</v>
       </c>
       <c r="L78" s="18">
         <f>+L49+L50</f>
         <v>1219</v>
       </c>
+      <c r="M78" s="18">
+        <f>+M49+M50</f>
+        <v>1272</v>
+      </c>
       <c r="T78" s="18">
         <f>+T49+T50</f>
         <v>1021</v>
@@ -5228,6 +5342,9 @@
       <c r="L79" s="1">
         <v>0</v>
       </c>
+      <c r="M79" s="1">
+        <v>0</v>
+      </c>
       <c r="T79" s="1">
         <v>0</v>
       </c>
@@ -5240,45 +5357,49 @@
         <v>8</v>
       </c>
       <c r="C80" s="18">
-        <f t="shared" ref="C80:K80" si="53">+C78-C79</f>
+        <f t="shared" ref="C80:K80" si="68">+C78-C79</f>
         <v>0</v>
       </c>
       <c r="D80" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="E80" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1053</v>
       </c>
       <c r="F80" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1021</v>
       </c>
       <c r="G80" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>950</v>
       </c>
       <c r="H80" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>990</v>
       </c>
       <c r="I80" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1030</v>
       </c>
       <c r="J80" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1124</v>
       </c>
       <c r="K80" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1115</v>
       </c>
       <c r="L80" s="18">
         <f>+L78-L79</f>
         <v>1219</v>
       </c>
+      <c r="M80" s="18">
+        <f>+M78-M79</f>
+        <v>1272</v>
+      </c>
       <c r="T80" s="18">
         <f>+T78-T79</f>
         <v>1021</v>
@@ -5340,38 +5461,41 @@
         <v>5</v>
       </c>
       <c r="E83" s="18">
-        <f t="shared" ref="E83" si="54">+E82*E26</f>
+        <f t="shared" ref="E83" si="69">+E82*E26</f>
         <v>8589.3961762399995</v>
       </c>
       <c r="F83" s="18">
-        <f>+F82*F26</f>
+        <f t="shared" ref="F83:M83" si="70">+F82*F26</f>
         <v>9231.36</v>
       </c>
       <c r="G83" s="18">
-        <f>+G82*G26</f>
+        <f t="shared" si="70"/>
         <v>8918.48</v>
       </c>
       <c r="H83" s="18">
-        <f>+H82*H26</f>
+        <f t="shared" si="70"/>
         <v>11939.53</v>
       </c>
       <c r="I83" s="18">
-        <f>+I82*I26</f>
+        <f t="shared" si="70"/>
         <v>10024.66183436</v>
       </c>
       <c r="J83" s="18">
-        <f>+J82*J26</f>
+        <f t="shared" si="70"/>
         <v>9714.3200000000015</v>
       </c>
       <c r="K83" s="18">
-        <f>+K82*K26</f>
+        <f t="shared" si="70"/>
         <v>13631.240000000002</v>
       </c>
       <c r="L83" s="18">
-        <f>+L82*L26</f>
+        <f t="shared" si="70"/>
         <v>14328.119999999999</v>
       </c>
-      <c r="M83" s="29"/>
+      <c r="M83" s="18">
+        <f t="shared" si="70"/>
+        <v>15938.529999999999</v>
+      </c>
       <c r="N83" s="29"/>
       <c r="S83" s="18">
         <f>+S82*S26</f>
@@ -5392,36 +5516,40 @@
         <v>9</v>
       </c>
       <c r="E84" s="18">
-        <f t="shared" ref="E84" si="55">+E83-E80</f>
+        <f t="shared" ref="E84" si="71">+E83-E80</f>
         <v>7536.3961762399995</v>
       </c>
       <c r="F84" s="18">
-        <f>+F83-F80</f>
+        <f t="shared" ref="F84:M84" si="72">+F83-F80</f>
         <v>8210.36</v>
       </c>
       <c r="G84" s="18">
-        <f>+G83-G80</f>
+        <f t="shared" si="72"/>
         <v>7968.48</v>
       </c>
       <c r="H84" s="18">
-        <f>+H83-H80</f>
+        <f t="shared" si="72"/>
         <v>10949.53</v>
       </c>
       <c r="I84" s="18">
-        <f>+I83-I80</f>
+        <f t="shared" si="72"/>
         <v>8994.6618343600003</v>
       </c>
       <c r="J84" s="18">
-        <f>+J83-J80</f>
+        <f t="shared" si="72"/>
         <v>8590.3200000000015</v>
       </c>
       <c r="K84" s="18">
-        <f>+K83-K80</f>
+        <f t="shared" si="72"/>
         <v>12516.240000000002</v>
       </c>
       <c r="L84" s="18">
-        <f>+L83-L80</f>
+        <f t="shared" si="72"/>
         <v>13109.119999999999</v>
+      </c>
+      <c r="M84" s="18">
+        <f t="shared" si="72"/>
+        <v>14666.529999999999</v>
       </c>
       <c r="T84" s="18">
         <f>+T83-T80</f>
@@ -5437,38 +5565,41 @@
         <v>20</v>
       </c>
       <c r="E86" s="34">
-        <f t="shared" ref="E86:F86" si="56">E82/E76</f>
+        <f t="shared" ref="E86" si="73">E82/E76</f>
         <v>7.6759572620554071</v>
       </c>
       <c r="F86" s="34">
-        <f t="shared" ref="F86:L86" si="57">F82/F76</f>
+        <f t="shared" ref="F86:K86" si="74">F82/F76</f>
         <v>8.4074316939890714</v>
       </c>
       <c r="G86" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="74"/>
         <v>8.1224772313296913</v>
       </c>
       <c r="H86" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="74"/>
         <v>11.065366079703429</v>
       </c>
       <c r="I86" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="74"/>
         <v>8.7246839289469094</v>
       </c>
       <c r="J86" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="74"/>
         <v>8.1359463986599678</v>
       </c>
       <c r="K86" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="74"/>
         <v>11.331039068994182</v>
       </c>
       <c r="L86" s="34">
         <f>L82/L76</f>
         <v>11.167669524551831</v>
       </c>
-      <c r="M86" s="43"/>
+      <c r="M86" s="34">
+        <f>M82/M76</f>
+        <v>11.224316901408452</v>
+      </c>
       <c r="N86" s="43"/>
       <c r="T86" s="34">
         <f>+T82/T76</f>
@@ -5485,41 +5616,44 @@
         <v>21</v>
       </c>
       <c r="E87" s="34">
-        <f t="shared" ref="E87" si="58">E83/SUM(B7:E7)</f>
+        <f t="shared" ref="E87" si="75">E83/SUM(B7:E7)</f>
         <v>4.3778777656676855</v>
       </c>
       <c r="F87" s="34">
-        <f t="shared" ref="F87:K87" si="59">F83/SUM(C7:F7)</f>
+        <f t="shared" ref="F87:K87" si="76">F83/SUM(C7:F7)</f>
         <v>3.3802123764188945</v>
       </c>
       <c r="G87" s="34">
-        <f t="shared" si="59"/>
+        <f t="shared" si="76"/>
         <v>2.9580364842454392</v>
       </c>
       <c r="H87" s="34">
-        <f t="shared" si="59"/>
+        <f t="shared" si="76"/>
         <v>3.5984116937914408</v>
       </c>
       <c r="I87" s="34">
-        <f t="shared" si="59"/>
+        <f t="shared" si="76"/>
         <v>2.7861761629683159</v>
       </c>
       <c r="J87" s="34">
-        <f t="shared" si="59"/>
+        <f t="shared" si="76"/>
         <v>2.513407503234153</v>
       </c>
       <c r="K87" s="34">
-        <f t="shared" si="59"/>
+        <f t="shared" si="76"/>
         <v>3.3077505459839847</v>
       </c>
       <c r="L87" s="34">
         <f>L83/SUM(I7:L7)</f>
         <v>3.2675302166476623</v>
       </c>
-      <c r="M87" s="43"/>
+      <c r="M87" s="34">
+        <f>M83/SUM(J7:M7)</f>
+        <v>3.4217539716616572</v>
+      </c>
       <c r="N87" s="43"/>
       <c r="T87" s="34">
-        <f t="shared" ref="T87" si="60">+T83/T7</f>
+        <f t="shared" ref="T87" si="77">+T83/T7</f>
         <v>3.3802123764188945</v>
       </c>
       <c r="U87" s="34">
@@ -5533,41 +5667,44 @@
         <v>22</v>
       </c>
       <c r="E88" s="34">
-        <f t="shared" ref="E88" si="61">E84/SUM(B7:E7)</f>
+        <f t="shared" ref="E88" si="78">E84/SUM(B7:E7)</f>
         <v>3.8411805179612637</v>
       </c>
       <c r="F88" s="34">
-        <f t="shared" ref="F88:K88" si="62">F84/SUM(C7:F7)</f>
+        <f t="shared" ref="F88:K88" si="79">F84/SUM(C7:F7)</f>
         <v>3.0063566459172466</v>
       </c>
       <c r="G88" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="79"/>
         <v>2.6429452736318408</v>
       </c>
       <c r="H88" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="79"/>
         <v>3.3000391802290538</v>
       </c>
       <c r="I88" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="79"/>
         <v>2.499906012884936</v>
       </c>
       <c r="J88" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="79"/>
         <v>2.2225924967658477</v>
       </c>
       <c r="K88" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="79"/>
         <v>3.037185149235623</v>
       </c>
       <c r="L88" s="34">
         <f>L84/SUM(I7:L7)</f>
         <v>2.9895370581527936</v>
       </c>
-      <c r="M88" s="43"/>
+      <c r="M88" s="34">
+        <f>M84/SUM(J7:M7)</f>
+        <v>3.1486753971661656</v>
+      </c>
       <c r="N88" s="43"/>
       <c r="T88" s="34">
-        <f t="shared" ref="T88" si="63">+T84/T7</f>
+        <f t="shared" ref="T88" si="80">+T84/T7</f>
         <v>3.0063566459172466</v>
       </c>
       <c r="U88" s="34">
@@ -5632,6 +5769,10 @@
         <f>104-K94</f>
         <v>124</v>
       </c>
+      <c r="M94" s="20">
+        <f>213-L94-K94</f>
+        <v>109</v>
+      </c>
       <c r="S94" s="1">
         <v>2</v>
       </c>
@@ -5684,6 +5825,9 @@
         <f>-29-K95</f>
         <v>-16</v>
       </c>
+      <c r="M95" s="20">
+        <v>-12</v>
+      </c>
       <c r="S95" s="1">
         <v>-19</v>
       </c>
@@ -5699,55 +5843,59 @@
         <v>140</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" ref="C96:F96" si="64">+C94+C95</f>
+        <f t="shared" ref="C96:F96" si="81">+C94+C95</f>
         <v>-50</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>-30</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>-80</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="81"/>
         <v>-29</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" ref="G96:L96" si="65">+G94+G95</f>
+        <f t="shared" ref="G96:M96" si="82">+G94+G95</f>
         <v>-65</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="82"/>
         <v>39</v>
       </c>
       <c r="I96" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="82"/>
         <v>38</v>
       </c>
       <c r="J96" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="82"/>
         <v>81</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="82"/>
         <v>-33</v>
       </c>
       <c r="L96" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="82"/>
         <v>108</v>
       </c>
+      <c r="M96" s="1">
+        <f t="shared" si="82"/>
+        <v>97</v>
+      </c>
       <c r="S96" s="1">
-        <f t="shared" ref="S96:U96" si="66">+S94+S95</f>
+        <f t="shared" ref="S96:U96" si="83">+S94+S95</f>
         <v>-17</v>
       </c>
       <c r="T96" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="83"/>
         <v>-189</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="83"/>
         <v>93</v>
       </c>
     </row>
@@ -5756,101 +5904,111 @@
         <v>141</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" ref="F98:K98" si="67">SUM(C96:F96)</f>
+        <f t="shared" ref="F98:K98" si="84">SUM(C96:F96)</f>
         <v>-189</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="84"/>
         <v>-204</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="84"/>
         <v>-135</v>
       </c>
       <c r="I98" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="84"/>
         <v>-17</v>
       </c>
       <c r="J98" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="84"/>
         <v>93</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="84"/>
         <v>125</v>
       </c>
       <c r="L98" s="1">
         <f>SUM(I96:L96)</f>
         <v>194</v>
       </c>
+      <c r="M98" s="1">
+        <f>SUM(J96:M96)</f>
+        <v>253</v>
+      </c>
       <c r="U98" s="1">
         <f>U96</f>
         <v>93</v>
       </c>
     </row>
-    <row r="99" spans="2:22" s="68" customFormat="1">
-      <c r="B99" s="68" t="s">
+    <row r="99" spans="2:22" s="53" customFormat="1">
+      <c r="B99" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="F99" s="68">
-        <f t="shared" ref="F99:K99" si="68">F98/F26</f>
+      <c r="F99" s="53">
+        <f t="shared" ref="F99:K99" si="85">F98/F26</f>
         <v>-0.369140625</v>
       </c>
-      <c r="G99" s="68">
-        <f t="shared" si="68"/>
+      <c r="G99" s="53">
+        <f t="shared" si="85"/>
         <v>-0.38931297709923662</v>
       </c>
-      <c r="H99" s="68">
-        <f t="shared" si="68"/>
+      <c r="H99" s="53">
+        <f t="shared" si="85"/>
         <v>-0.2551984877126654</v>
       </c>
-      <c r="I99" s="68">
-        <f t="shared" si="68"/>
+      <c r="I99" s="53">
+        <f t="shared" si="85"/>
         <v>-3.1762667435686932E-2</v>
       </c>
-      <c r="J99" s="68">
-        <f t="shared" si="68"/>
+      <c r="J99" s="53">
+        <f t="shared" si="85"/>
         <v>0.17481203007518797</v>
       </c>
-      <c r="K99" s="68">
-        <f t="shared" si="68"/>
+      <c r="K99" s="53">
+        <f t="shared" si="85"/>
         <v>0.22851919561243145</v>
       </c>
-      <c r="L99" s="68">
+      <c r="L99" s="53">
         <f>L98/L26</f>
         <v>0.34892086330935251</v>
       </c>
-      <c r="M99" s="69"/>
-      <c r="N99" s="69"/>
-      <c r="U99" s="68">
+      <c r="M99" s="53">
+        <f>M98/M26</f>
+        <v>0.44937833037300179</v>
+      </c>
+      <c r="N99" s="54"/>
+      <c r="U99" s="53">
         <f>U98/U26</f>
         <v>0.17481203007518797</v>
       </c>
-      <c r="V99" s="69"/>
-    </row>
-    <row r="100" spans="2:22" s="70" customFormat="1">
-      <c r="B100" s="70" t="s">
+      <c r="V99" s="54"/>
+    </row>
+    <row r="100" spans="2:22" s="55" customFormat="1">
+      <c r="B100" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="J100" s="70">
-        <f t="shared" ref="F100:K100" si="69">J82/J99</f>
+      <c r="J100" s="55">
+        <f t="shared" ref="J100:K100" si="86">J82/J99</f>
         <v>104.45505376344087</v>
       </c>
-      <c r="K100" s="70">
-        <f t="shared" si="69"/>
+      <c r="K100" s="55">
+        <f t="shared" si="86"/>
         <v>109.04992</v>
       </c>
-      <c r="L100" s="70">
+      <c r="L100" s="55">
         <f>L82/L99</f>
         <v>73.856288659793819</v>
       </c>
-      <c r="M100" s="71"/>
-      <c r="N100" s="71"/>
-      <c r="U100" s="70">
+      <c r="M100" s="55">
+        <f>M82/M99</f>
+        <v>62.998142292490115</v>
+      </c>
+      <c r="N100" s="56"/>
+      <c r="U100" s="55">
         <f>U82/U99</f>
         <v>104.45505376344087</v>
       </c>
-      <c r="V100" s="71"/>
+      <c r="V100" s="56"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5865,12 +6023,13 @@
     <hyperlink ref="T1" r:id="rId9" xr:uid="{424A4C07-9793-4D41-96B8-D93CE6AE4C47}"/>
     <hyperlink ref="S1" r:id="rId10" xr:uid="{6011FFA0-0DE5-4B7C-BF19-7BDC661C975F}"/>
     <hyperlink ref="E1" r:id="rId11" xr:uid="{4DC3E384-607C-45CF-9458-C63271D0A113}"/>
+    <hyperlink ref="M1" r:id="rId12" xr:uid="{0198B9C7-7608-416A-8251-E3018FDD70AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
   <ignoredErrors>
     <ignoredError sqref="V22 J7 J22 F7 F18:F24 J43" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/$TOST.xlsx
+++ b/$TOST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42356E26-1E2C-4113-9531-14C5E0335382}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32656802-5BBD-4074-B7F8-872409F2CA63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{37C1F632-1354-44A5-BE18-53817A0497AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{37C1F632-1354-44A5-BE18-53817A0497AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="145">
   <si>
     <t>$TOST</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>Price / FCF</t>
+  </si>
+  <si>
+    <t>P/FCF</t>
   </si>
 </sst>
 </file>
@@ -798,6 +801,15 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -805,6 +817,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -825,26 +843,11 @@
     <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1266,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C252767D-E034-4C61-A8CB-E9E6C309CBB2}">
-  <dimension ref="A2:S39"/>
+  <dimension ref="A2:S40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1291,23 +1294,23 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="G5" s="57" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="G5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="59"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
       <c r="S5" s="2" t="s">
         <v>122</v>
       </c>
@@ -1515,11 +1518,11 @@
       <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
       <c r="G15" s="35">
         <v>43922</v>
       </c>
@@ -1542,10 +1545,10 @@
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="67"/>
+      <c r="D16" s="64"/>
       <c r="G16" s="7"/>
       <c r="H16" s="46"/>
       <c r="I16" s="46"/>
@@ -1561,10 +1564,10 @@
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="67"/>
+      <c r="D17" s="64"/>
       <c r="G17" s="7"/>
       <c r="H17" s="46"/>
       <c r="I17" s="46"/>
@@ -1580,10 +1583,10 @@
       <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="67"/>
+      <c r="D18" s="64"/>
       <c r="G18" s="16">
         <v>41030</v>
       </c>
@@ -1606,74 +1609,74 @@
       <c r="B19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="71"/>
+      <c r="D19" s="59"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="67"/>
+      <c r="D23" s="64"/>
     </row>
     <row r="24" spans="1:16">
       <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="63">
         <v>2011</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="64"/>
     </row>
     <row r="25" spans="1:16">
       <c r="B25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="63">
         <v>2021</v>
       </c>
-      <c r="D25" s="67"/>
+      <c r="D25" s="64"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" s="7"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
     </row>
     <row r="27" spans="1:16">
       <c r="B27" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="69">
         <f>+'Financial Model'!U39</f>
         <v>106000</v>
       </c>
-      <c r="D27" s="67"/>
+      <c r="D27" s="64"/>
     </row>
     <row r="28" spans="1:16">
       <c r="B28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="69">
         <f>+'Financial Model'!U37</f>
         <v>5500</v>
       </c>
-      <c r="D28" s="65"/>
+      <c r="D28" s="70"/>
     </row>
     <row r="29" spans="1:16">
       <c r="B29" s="7"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
     </row>
     <row r="30" spans="1:16">
       <c r="B30" s="7" t="s">
@@ -1691,76 +1694,79 @@
       <c r="B31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="69"/>
+      <c r="D31" s="72"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="60">
+      <c r="C35" s="65">
         <f>+C6/'Financial Model'!M76</f>
         <v>14.471478873239437</v>
       </c>
-      <c r="D35" s="61"/>
+      <c r="D35" s="66"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="60">
+      <c r="C36" s="65">
         <f>C8/SUM('Financial Model'!J7:M7)</f>
         <v>4.4116573636753973</v>
       </c>
-      <c r="D36" s="61"/>
+      <c r="D36" s="66"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="60">
+      <c r="C37" s="65">
         <f>C12/SUM('Financial Model'!J7:M7)</f>
         <v>4.1385787891799053</v>
       </c>
-      <c r="D37" s="61"/>
+      <c r="D37" s="66"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="60">
+      <c r="C38" s="65">
         <f>C6/SUM('Financial Model'!J25:M25)</f>
         <v>-385.18800216010868</v>
       </c>
-      <c r="D38" s="61"/>
+      <c r="D38" s="66"/>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="67">
         <f>C12/SUM('Financial Model'!J24:M24)</f>
         <v>-393.41836734693879</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="68"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="34">
+        <f>+C6/'Financial Model'!M99</f>
+        <v>81.223320158102766</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="G5:P5"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1777,6 +1783,12 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C31:D31" r:id="rId1" display="Link" xr:uid="{8920C50F-38C5-44AC-8838-75639CA0C9B3}"/>
@@ -1789,11 +1801,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0793FD4D-2238-4E20-B0AD-CEC470AFAB11}">
   <dimension ref="B1:AD100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
+      <selection pane="bottomRight" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1919,7 +1931,7 @@
       <c r="L2" s="32">
         <v>45473</v>
       </c>
-      <c r="M2" s="72">
+      <c r="M2" s="57">
         <v>45565</v>
       </c>
       <c r="N2" s="37"/>
@@ -2907,7 +2919,7 @@
         <v>-1</v>
       </c>
       <c r="N20" s="29">
-        <f t="shared" ref="M20:N20" si="14">AVERAGE(H20:M20)</f>
+        <f t="shared" ref="N20" si="14">AVERAGE(H20:M20)</f>
         <v>-6.333333333333333</v>
       </c>
       <c r="S20" s="18">
@@ -2964,7 +2976,7 @@
         <v>15</v>
       </c>
       <c r="N21" s="29">
-        <f t="shared" ref="M21:N21" si="15">AVERAGE(H21:M21)</f>
+        <f t="shared" ref="N21" si="15">AVERAGE(H21:M21)</f>
         <v>3</v>
       </c>
       <c r="S21" s="18">
@@ -3660,27 +3672,27 @@
         <v>6.5019505851755532E-2</v>
       </c>
       <c r="H34" s="22">
-        <f>+H7/G7-1</f>
+        <f t="shared" ref="H34:M34" si="41">+H7/G7-1</f>
         <v>0.19413919413919412</v>
       </c>
       <c r="I34" s="22">
-        <f>+I7/H7-1</f>
+        <f t="shared" si="41"/>
         <v>5.5214723926380271E-2</v>
       </c>
       <c r="J34" s="22">
-        <f>+J7/I7-1</f>
+        <f t="shared" si="41"/>
         <v>3.8759689922480689E-3</v>
       </c>
       <c r="K34" s="22">
-        <f>+K7/J7-1</f>
+        <f t="shared" si="41"/>
         <v>3.7644787644787625E-2</v>
       </c>
       <c r="L34" s="22">
-        <f>+L7/K7-1</f>
+        <f t="shared" si="41"/>
         <v>0.15534883720930237</v>
       </c>
       <c r="M34" s="22">
-        <f>+M7/L7-1</f>
+        <f t="shared" si="41"/>
         <v>5.0724637681159424E-2</v>
       </c>
       <c r="S34" s="9" t="s">
@@ -3844,46 +3856,46 @@
         <v>133</v>
       </c>
       <c r="G42" s="47">
-        <f t="shared" ref="G42:M42" si="41">G41/C41-1</f>
+        <f t="shared" ref="G42:M42" si="42">G41/C41-1</f>
         <v>0.5</v>
       </c>
       <c r="H42" s="47">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.37768240343347648</v>
       </c>
       <c r="I42" s="47">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.33730158730158744</v>
       </c>
       <c r="J42" s="47">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.32283464566929077</v>
       </c>
       <c r="K42" s="47">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.29962546816479407</v>
       </c>
       <c r="L42" s="47">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.26168224299065423</v>
       </c>
       <c r="M42" s="47">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.23738872403560829</v>
       </c>
       <c r="Q42" s="52" t="s">
         <v>116</v>
       </c>
       <c r="R42" s="47">
-        <f t="shared" ref="R42:T42" si="42">R41/Q41-1</f>
+        <f t="shared" ref="R42:T42" si="43">R41/Q41-1</f>
         <v>0.16513761467889898</v>
       </c>
       <c r="S42" s="47">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1.2440944881889764</v>
       </c>
       <c r="T42" s="47">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.60877192982456152</v>
       </c>
       <c r="U42" s="47">
@@ -4027,15 +4039,15 @@
         <v>116</v>
       </c>
       <c r="R46" s="48">
-        <f t="shared" ref="R46:T46" si="43">R45/Q45-1</f>
+        <f t="shared" ref="R46:T46" si="44">R45/Q45-1</f>
         <v>3.6363636363636154E-2</v>
       </c>
       <c r="S46" s="48">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.1842105263157896</v>
       </c>
       <c r="T46" s="48">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-0.125925925925926</v>
       </c>
       <c r="U46" s="48">
@@ -4259,39 +4271,39 @@
         <v>75</v>
       </c>
       <c r="C54" s="18">
-        <f t="shared" ref="C54:K54" si="44">+SUM(C49:C53)</f>
+        <f t="shared" ref="C54:K54" si="45">+SUM(C49:C53)</f>
         <v>0</v>
       </c>
       <c r="D54" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E54" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1402</v>
       </c>
       <c r="F54" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1407</v>
       </c>
       <c r="G54" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1408</v>
       </c>
       <c r="H54" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1455</v>
       </c>
       <c r="I54" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1480</v>
       </c>
       <c r="J54" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1570</v>
       </c>
       <c r="K54" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1651</v>
       </c>
       <c r="L54" s="18">
@@ -4299,24 +4311,24 @@
         <v>1739</v>
       </c>
       <c r="M54" s="18">
-        <f t="shared" ref="M54" si="45">+SUM(M49:M53)</f>
+        <f t="shared" ref="M54" si="46">+SUM(M49:M53)</f>
         <v>1802</v>
       </c>
       <c r="N54" s="29"/>
       <c r="R54" s="18">
-        <f t="shared" ref="R54:U54" si="46">+SUM(R49:R53)</f>
+        <f t="shared" ref="R54:U54" si="47">+SUM(R49:R53)</f>
         <v>0</v>
       </c>
       <c r="S54" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="T54" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1407</v>
       </c>
       <c r="U54" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1570</v>
       </c>
       <c r="V54" s="29"/>
@@ -4542,39 +4554,39 @@
         <v>81</v>
       </c>
       <c r="C60" s="18">
-        <f t="shared" ref="C60:K60" si="47">+SUM(C55:C59)</f>
+        <f t="shared" ref="C60:K60" si="48">+SUM(C55:C59)</f>
         <v>0</v>
       </c>
       <c r="D60" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E60" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>339</v>
       </c>
       <c r="F60" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>354</v>
       </c>
       <c r="G60" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>387</v>
       </c>
       <c r="H60" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>340</v>
       </c>
       <c r="I60" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>354</v>
       </c>
       <c r="J60" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>388</v>
       </c>
       <c r="K60" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>401</v>
       </c>
       <c r="L60" s="18">
@@ -4587,19 +4599,19 @@
       </c>
       <c r="N60" s="29"/>
       <c r="R60" s="18">
-        <f t="shared" ref="R60:U60" si="48">+SUM(R55:R59)</f>
+        <f t="shared" ref="R60:U60" si="49">+SUM(R55:R59)</f>
         <v>0</v>
       </c>
       <c r="S60" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T60" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>354</v>
       </c>
       <c r="U60" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>388</v>
       </c>
       <c r="V60" s="29"/>
@@ -4609,39 +4621,39 @@
         <v>82</v>
       </c>
       <c r="C61" s="18">
-        <f t="shared" ref="C61:K61" si="49">+C54+C60</f>
+        <f t="shared" ref="C61:K61" si="50">+C54+C60</f>
         <v>0</v>
       </c>
       <c r="D61" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="E61" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1741</v>
       </c>
       <c r="F61" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1761</v>
       </c>
       <c r="G61" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1795</v>
       </c>
       <c r="H61" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1795</v>
       </c>
       <c r="I61" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1834</v>
       </c>
       <c r="J61" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1958</v>
       </c>
       <c r="K61" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2052</v>
       </c>
       <c r="L61" s="18">
@@ -4649,24 +4661,24 @@
         <v>2155</v>
       </c>
       <c r="M61" s="18">
-        <f t="shared" ref="M61" si="50">+M54+M60</f>
+        <f t="shared" ref="M61" si="51">+M54+M60</f>
         <v>2227</v>
       </c>
       <c r="N61" s="29"/>
       <c r="R61" s="18">
-        <f t="shared" ref="R61:U61" si="51">+R54+R60</f>
+        <f t="shared" ref="R61:U61" si="52">+R54+R60</f>
         <v>0</v>
       </c>
       <c r="S61" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="T61" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1761</v>
       </c>
       <c r="U61" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1958</v>
       </c>
       <c r="V61" s="29"/>
@@ -4805,39 +4817,39 @@
         <v>86</v>
       </c>
       <c r="C66" s="18">
-        <f t="shared" ref="C66:K66" si="52">+SUM(C63:C65)</f>
+        <f t="shared" ref="C66:K66" si="53">+SUM(C63:C65)</f>
         <v>0</v>
       </c>
       <c r="D66" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="E66" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>457</v>
       </c>
       <c r="F66" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>496</v>
       </c>
       <c r="G66" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>538</v>
       </c>
       <c r="H66" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>584</v>
       </c>
       <c r="I66" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>574</v>
       </c>
       <c r="J66" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>663</v>
       </c>
       <c r="K66" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>713</v>
       </c>
       <c r="L66" s="18">
@@ -4845,24 +4857,24 @@
         <v>736</v>
       </c>
       <c r="M66" s="18">
-        <f t="shared" ref="M66" si="53">+SUM(M63:M65)</f>
+        <f t="shared" ref="M66" si="54">+SUM(M63:M65)</f>
         <v>748</v>
       </c>
       <c r="N66" s="29"/>
       <c r="R66" s="18">
-        <f t="shared" ref="R66:U66" si="54">+SUM(R63:R65)</f>
+        <f t="shared" ref="R66:U66" si="55">+SUM(R63:R65)</f>
         <v>0</v>
       </c>
       <c r="S66" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T66" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>496</v>
       </c>
       <c r="U66" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>663</v>
       </c>
       <c r="V66" s="29"/>
@@ -4997,39 +5009,39 @@
         <v>90</v>
       </c>
       <c r="C70" s="18">
-        <f t="shared" ref="C70:K70" si="55">SUM(C66:C69)</f>
+        <f t="shared" ref="C70:K70" si="56">SUM(C66:C69)</f>
         <v>0</v>
       </c>
       <c r="D70" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="E70" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>622</v>
       </c>
       <c r="F70" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>663</v>
       </c>
       <c r="G70" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>697</v>
       </c>
       <c r="H70" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>716</v>
       </c>
       <c r="I70" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>685</v>
       </c>
       <c r="J70" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>764</v>
       </c>
       <c r="K70" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>849</v>
       </c>
       <c r="L70" s="18">
@@ -5037,24 +5049,24 @@
         <v>872</v>
       </c>
       <c r="M70" s="18">
-        <f t="shared" ref="M70" si="56">SUM(M66:M69)</f>
+        <f t="shared" ref="M70" si="57">SUM(M66:M69)</f>
         <v>807</v>
       </c>
       <c r="N70" s="29"/>
       <c r="R70" s="18">
-        <f t="shared" ref="R70:U70" si="57">SUM(R66:R69)</f>
+        <f t="shared" ref="R70:U70" si="58">SUM(R66:R69)</f>
         <v>0</v>
       </c>
       <c r="S70" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="T70" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>663</v>
       </c>
       <c r="U70" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>764</v>
       </c>
       <c r="V70" s="29"/>
@@ -5107,48 +5119,48 @@
         <v>92</v>
       </c>
       <c r="E73" s="18">
-        <f t="shared" ref="E73:L73" si="58">+E72+E70</f>
+        <f t="shared" ref="E73:L73" si="59">+E72+E70</f>
         <v>1741</v>
       </c>
       <c r="F73" s="18">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1761</v>
       </c>
       <c r="G73" s="18">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1795</v>
       </c>
       <c r="H73" s="18">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1795</v>
       </c>
       <c r="I73" s="18">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1834</v>
       </c>
       <c r="J73" s="18">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1958</v>
       </c>
       <c r="K73" s="18">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2052</v>
       </c>
       <c r="L73" s="18">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2155</v>
       </c>
       <c r="M73" s="18">
-        <f t="shared" ref="M73" si="59">+M72+M70</f>
+        <f t="shared" ref="M73" si="60">+M72+M70</f>
         <v>2227</v>
       </c>
       <c r="N73" s="29"/>
       <c r="T73" s="18">
-        <f t="shared" ref="T73:U73" si="60">+T72+T70</f>
+        <f t="shared" ref="T73:U73" si="61">+T72+T70</f>
         <v>1761</v>
       </c>
       <c r="U73" s="18">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1958</v>
       </c>
       <c r="V73" s="29"/>
@@ -5158,11 +5170,11 @@
         <v>93</v>
       </c>
       <c r="E75" s="18">
-        <f t="shared" ref="E75" si="61">+E61-E70</f>
+        <f t="shared" ref="E75" si="62">+E61-E70</f>
         <v>1119</v>
       </c>
       <c r="F75" s="18">
-        <f t="shared" ref="F75" si="62">+F61-F70</f>
+        <f t="shared" ref="F75" si="63">+F61-F70</f>
         <v>1098</v>
       </c>
       <c r="G75" s="18">
@@ -5174,11 +5186,11 @@
         <v>1079</v>
       </c>
       <c r="I75" s="18">
-        <f t="shared" ref="I75:J75" si="63">+I61-I70</f>
+        <f t="shared" ref="I75:J75" si="64">+I61-I70</f>
         <v>1149</v>
       </c>
       <c r="J75" s="18">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1194</v>
       </c>
       <c r="K75" s="18">
@@ -5207,11 +5219,11 @@
         <v>94</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" ref="E76" si="64">+E75/E26</f>
+        <f t="shared" ref="E76" si="65">+E75/E26</f>
         <v>2.1782299495923523</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" ref="F76" si="65">+F75/F26</f>
+        <f t="shared" ref="F76" si="66">+F75/F26</f>
         <v>2.14453125</v>
       </c>
       <c r="G76" s="1">
@@ -5223,11 +5235,11 @@
         <v>2.0396975425330814</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" ref="I76:J76" si="66">+I75/I26</f>
+        <f t="shared" ref="I76:J76" si="67">+I75/I26</f>
         <v>2.1467826402120171</v>
       </c>
       <c r="J76" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>2.244360902255639</v>
       </c>
       <c r="K76" s="1">
@@ -5256,39 +5268,39 @@
         <v>6</v>
       </c>
       <c r="C78" s="18">
-        <f t="shared" ref="C78:K78" si="67">+C49+C50</f>
+        <f t="shared" ref="C78:K78" si="68">+C49+C50</f>
         <v>0</v>
       </c>
       <c r="D78" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="E78" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1053</v>
       </c>
       <c r="F78" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1021</v>
       </c>
       <c r="G78" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>950</v>
       </c>
       <c r="H78" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>990</v>
       </c>
       <c r="I78" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1030</v>
       </c>
       <c r="J78" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1124</v>
       </c>
       <c r="K78" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1115</v>
       </c>
       <c r="L78" s="18">
@@ -5357,39 +5369,39 @@
         <v>8</v>
       </c>
       <c r="C80" s="18">
-        <f t="shared" ref="C80:K80" si="68">+C78-C79</f>
+        <f t="shared" ref="C80:K80" si="69">+C78-C79</f>
         <v>0</v>
       </c>
       <c r="D80" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="E80" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1053</v>
       </c>
       <c r="F80" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1021</v>
       </c>
       <c r="G80" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>950</v>
       </c>
       <c r="H80" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>990</v>
       </c>
       <c r="I80" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1030</v>
       </c>
       <c r="J80" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1124</v>
       </c>
       <c r="K80" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1115</v>
       </c>
       <c r="L80" s="18">
@@ -5461,39 +5473,39 @@
         <v>5</v>
       </c>
       <c r="E83" s="18">
-        <f t="shared" ref="E83" si="69">+E82*E26</f>
+        <f t="shared" ref="E83" si="70">+E82*E26</f>
         <v>8589.3961762399995</v>
       </c>
       <c r="F83" s="18">
-        <f t="shared" ref="F83:M83" si="70">+F82*F26</f>
+        <f t="shared" ref="F83:M83" si="71">+F82*F26</f>
         <v>9231.36</v>
       </c>
       <c r="G83" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>8918.48</v>
       </c>
       <c r="H83" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>11939.53</v>
       </c>
       <c r="I83" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>10024.66183436</v>
       </c>
       <c r="J83" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>9714.3200000000015</v>
       </c>
       <c r="K83" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>13631.240000000002</v>
       </c>
       <c r="L83" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>14328.119999999999</v>
       </c>
       <c r="M83" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>15938.529999999999</v>
       </c>
       <c r="N83" s="29"/>
@@ -5516,39 +5528,39 @@
         <v>9</v>
       </c>
       <c r="E84" s="18">
-        <f t="shared" ref="E84" si="71">+E83-E80</f>
+        <f t="shared" ref="E84" si="72">+E83-E80</f>
         <v>7536.3961762399995</v>
       </c>
       <c r="F84" s="18">
-        <f t="shared" ref="F84:M84" si="72">+F83-F80</f>
+        <f t="shared" ref="F84:M84" si="73">+F83-F80</f>
         <v>8210.36</v>
       </c>
       <c r="G84" s="18">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>7968.48</v>
       </c>
       <c r="H84" s="18">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>10949.53</v>
       </c>
       <c r="I84" s="18">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>8994.6618343600003</v>
       </c>
       <c r="J84" s="18">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>8590.3200000000015</v>
       </c>
       <c r="K84" s="18">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>12516.240000000002</v>
       </c>
       <c r="L84" s="18">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>13109.119999999999</v>
       </c>
       <c r="M84" s="18">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>14666.529999999999</v>
       </c>
       <c r="T84" s="18">
@@ -5565,31 +5577,31 @@
         <v>20</v>
       </c>
       <c r="E86" s="34">
-        <f t="shared" ref="E86" si="73">E82/E76</f>
+        <f t="shared" ref="E86" si="74">E82/E76</f>
         <v>7.6759572620554071</v>
       </c>
       <c r="F86" s="34">
-        <f t="shared" ref="F86:K86" si="74">F82/F76</f>
+        <f t="shared" ref="F86:K86" si="75">F82/F76</f>
         <v>8.4074316939890714</v>
       </c>
       <c r="G86" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>8.1224772313296913</v>
       </c>
       <c r="H86" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>11.065366079703429</v>
       </c>
       <c r="I86" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>8.7246839289469094</v>
       </c>
       <c r="J86" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>8.1359463986599678</v>
       </c>
       <c r="K86" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>11.331039068994182</v>
       </c>
       <c r="L86" s="34">
@@ -5616,31 +5628,31 @@
         <v>21</v>
       </c>
       <c r="E87" s="34">
-        <f t="shared" ref="E87" si="75">E83/SUM(B7:E7)</f>
+        <f t="shared" ref="E87" si="76">E83/SUM(B7:E7)</f>
         <v>4.3778777656676855</v>
       </c>
       <c r="F87" s="34">
-        <f t="shared" ref="F87:K87" si="76">F83/SUM(C7:F7)</f>
+        <f t="shared" ref="F87:K87" si="77">F83/SUM(C7:F7)</f>
         <v>3.3802123764188945</v>
       </c>
       <c r="G87" s="34">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>2.9580364842454392</v>
       </c>
       <c r="H87" s="34">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>3.5984116937914408</v>
       </c>
       <c r="I87" s="34">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>2.7861761629683159</v>
       </c>
       <c r="J87" s="34">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>2.513407503234153</v>
       </c>
       <c r="K87" s="34">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>3.3077505459839847</v>
       </c>
       <c r="L87" s="34">
@@ -5653,7 +5665,7 @@
       </c>
       <c r="N87" s="43"/>
       <c r="T87" s="34">
-        <f t="shared" ref="T87" si="77">+T83/T7</f>
+        <f t="shared" ref="T87" si="78">+T83/T7</f>
         <v>3.3802123764188945</v>
       </c>
       <c r="U87" s="34">
@@ -5667,31 +5679,31 @@
         <v>22</v>
       </c>
       <c r="E88" s="34">
-        <f t="shared" ref="E88" si="78">E84/SUM(B7:E7)</f>
+        <f t="shared" ref="E88" si="79">E84/SUM(B7:E7)</f>
         <v>3.8411805179612637</v>
       </c>
       <c r="F88" s="34">
-        <f t="shared" ref="F88:K88" si="79">F84/SUM(C7:F7)</f>
+        <f t="shared" ref="F88:K88" si="80">F84/SUM(C7:F7)</f>
         <v>3.0063566459172466</v>
       </c>
       <c r="G88" s="34">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2.6429452736318408</v>
       </c>
       <c r="H88" s="34">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>3.3000391802290538</v>
       </c>
       <c r="I88" s="34">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2.499906012884936</v>
       </c>
       <c r="J88" s="34">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2.2225924967658477</v>
       </c>
       <c r="K88" s="34">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>3.037185149235623</v>
       </c>
       <c r="L88" s="34">
@@ -5704,7 +5716,7 @@
       </c>
       <c r="N88" s="43"/>
       <c r="T88" s="34">
-        <f t="shared" ref="T88" si="80">+T84/T7</f>
+        <f t="shared" ref="T88" si="81">+T84/T7</f>
         <v>3.0063566459172466</v>
       </c>
       <c r="U88" s="34">
@@ -5843,59 +5855,59 @@
         <v>140</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" ref="C96:F96" si="81">+C94+C95</f>
+        <f t="shared" ref="C96:F96" si="82">+C94+C95</f>
         <v>-50</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-30</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-80</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>-29</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" ref="G96:M96" si="82">+G94+G95</f>
+        <f t="shared" ref="G96:M96" si="83">+G94+G95</f>
         <v>-65</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>39</v>
       </c>
       <c r="I96" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>38</v>
       </c>
       <c r="J96" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>81</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-33</v>
       </c>
       <c r="L96" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>108</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>97</v>
       </c>
       <c r="S96" s="1">
-        <f t="shared" ref="S96:U96" si="83">+S94+S95</f>
+        <f t="shared" ref="S96:U96" si="84">+S94+S95</f>
         <v>-17</v>
       </c>
       <c r="T96" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>-189</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>93</v>
       </c>
     </row>
@@ -5904,27 +5916,27 @@
         <v>141</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" ref="F98:K98" si="84">SUM(C96:F96)</f>
+        <f t="shared" ref="F98:K98" si="85">SUM(C96:F96)</f>
         <v>-189</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-204</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-135</v>
       </c>
       <c r="I98" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>-17</v>
       </c>
       <c r="J98" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>93</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>125</v>
       </c>
       <c r="L98" s="1">
@@ -5945,27 +5957,27 @@
         <v>142</v>
       </c>
       <c r="F99" s="53">
-        <f t="shared" ref="F99:K99" si="85">F98/F26</f>
+        <f t="shared" ref="F99:K99" si="86">F98/F26</f>
         <v>-0.369140625</v>
       </c>
       <c r="G99" s="53">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>-0.38931297709923662</v>
       </c>
       <c r="H99" s="53">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>-0.2551984877126654</v>
       </c>
       <c r="I99" s="53">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>-3.1762667435686932E-2</v>
       </c>
       <c r="J99" s="53">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.17481203007518797</v>
       </c>
       <c r="K99" s="53">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.22851919561243145</v>
       </c>
       <c r="L99" s="53">
@@ -5988,11 +6000,11 @@
         <v>143</v>
       </c>
       <c r="J100" s="55">
-        <f t="shared" ref="J100:K100" si="86">J82/J99</f>
+        <f t="shared" ref="J100:K100" si="87">J82/J99</f>
         <v>104.45505376344087</v>
       </c>
       <c r="K100" s="55">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>109.04992</v>
       </c>
       <c r="L100" s="55">
